--- a/bika/lims/setupdata/test/test.xlsx
+++ b/bika/lims/setupdata/test/test.xlsx
@@ -6133,7 +6133,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="98.1214574898785"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="98.9797570850202"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -6203,8 +6203,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6254,8 +6254,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6356,8 +6356,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -6696,14 +6696,14 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.31983805668016"/>
   </cols>
   <sheetData>
@@ -6881,10 +6881,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="40" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="40" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="40" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7060,12 +7060,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7286,8 +7286,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7397,13 +7397,13 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.49797570850202"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.5668016194332"/>
     <col collapsed="false" hidden="false" max="1023" min="9" style="0" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.78542510121457"/>
   </cols>
@@ -7782,7 +7782,7 @@
   </sheetData>
   <dataValidations count="6">
     <dataValidation allowBlank="false" error="Select 0 or 1  from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (True) or 0 (False) from the drop-down menu" promptTitle="Does the client get membership discount?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:D8 D10:D14" type="list">
-      <formula1>Constants!$G$2:$G$3</formula1>
+      <formula1>constaa s!$g$2:ug$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" prompt="Enter a number and recognised unit separated by a space, e.g. 100 g or 50 ml" promptTitle="Entry format:" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="G4:G15" type="none">
@@ -7833,10 +7833,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1018" min="9" style="0" width="8.57085020242915"/>
@@ -8128,9 +8128,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1018" min="4" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.1417004048583"/>
   </cols>
@@ -8196,24 +8196,24 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="20.1376518218623"/>
+    <col collapsed="false" hidden="true" max="1" min="1" style="5" width="0"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="5" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.21457489878543"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="7.39271255060729"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="6" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -8316,6 +8316,7 @@
         <v>34</v>
       </c>
       <c r="E5" s="10"/>
+      <c r="F5" s="0"/>
       <c r="G5" s="0"/>
       <c r="H5" s="5" t="s">
         <v>35</v>
@@ -8338,6 +8339,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="10"/>
+      <c r="F6" s="0"/>
       <c r="G6" s="0"/>
       <c r="H6" s="5" t="s">
         <v>29</v>
@@ -8360,6 +8362,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="10"/>
+      <c r="F7" s="0"/>
       <c r="G7" s="0"/>
       <c r="H7" s="5" t="s">
         <v>40</v>
@@ -8382,6 +8385,7 @@
         <v>34</v>
       </c>
       <c r="E8" s="10"/>
+      <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="H8" s="5" t="s">
         <v>43</v>
@@ -8404,6 +8408,7 @@
         <v>34</v>
       </c>
       <c r="E9" s="10"/>
+      <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="H9" s="5" t="s">
         <v>47</v>
@@ -8426,6 +8431,7 @@
         <v>34</v>
       </c>
       <c r="E10" s="10"/>
+      <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="H10" s="5" t="s">
         <v>51</v>
@@ -8448,6 +8454,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="10"/>
+      <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="H11" s="5" t="s">
         <v>55</v>
@@ -8470,6 +8477,7 @@
         <v>34</v>
       </c>
       <c r="E12" s="10"/>
+      <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="H12" s="5" t="s">
         <v>59</v>
@@ -8550,11 +8558,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="57.417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="86" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="57.9514170040486"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="86" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8811,8 +8819,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8953,9 +8961,9 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9183,7 +9191,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="21" min="2" style="0" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
@@ -9462,8 +9470,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -9582,26 +9590,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10753,18 +10761,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="39.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -10944,17 +10952,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.9595141700405"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.4574898785425"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="36.5263157894737"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -11127,11 +11135,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5708502024291"/>
   </cols>
@@ -11265,15 +11273,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.5303643724696"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.71255060728745"/>
   </cols>
@@ -12135,8 +12143,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.7408906882591"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.74898785425101"/>
   </cols>
   <sheetData>
@@ -12537,15 +12545,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.35627530364372"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.71255060728745"/>
   </cols>
@@ -12764,15 +12772,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -12866,9 +12874,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12969,9 +12977,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.7732793522267"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.8461538461539"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.31983805668016"/>
   </cols>
   <sheetData>
@@ -13107,8 +13115,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.39271255060729"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
@@ -13715,13 +13723,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.10526315789474"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.71255060728745"/>
@@ -13734,7 +13741,7 @@
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="23" min="22" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.21052631578947"/>
@@ -16045,8 +16052,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.3117408906883"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -16096,8 +16103,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -16147,10 +16154,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -16222,7 +16229,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="973" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="5.1417004048583"/>
   </cols>
@@ -16429,18 +16436,18 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.39271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.39271255060729"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -17502,9 +17509,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="997" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="5.1417004048583"/>
   </cols>
@@ -18979,10 +18986,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.46153846153846"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -19132,9 +19139,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="30.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -19353,11 +19360,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
@@ -24845,12 +24852,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
@@ -25008,9 +25015,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -25186,11 +25193,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -25255,8 +25262,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -25421,10 +25428,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="6" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -25860,20 +25867,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.46153846153846"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26006,10 +26014,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -26199,12 +26207,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.7408906882591"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.21457489878543"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="22.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26309,10 +26317,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.49797570850202"/>
@@ -26320,9 +26328,9 @@
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="97.4777327935223"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="98.336032388664"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26461,10 +26469,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -26539,8 +26547,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.0607287449393"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.3846153846154"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -26625,17 +26633,16 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26758,16 +26765,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.9" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26888,9 +26895,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.49797570850202"/>
@@ -26898,8 +26905,8 @@
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27108,10 +27115,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -27186,9 +27193,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -27264,8 +27271,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -27344,10 +27351,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="40" width="8.24696356275304"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="40" width="6"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="40" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -27506,8 +27513,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
@@ -27904,10 +27911,10 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="1023" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.1417004048583"/>
   </cols>
@@ -28386,7 +28393,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.39271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="8" min="6" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.3886639676113"/>
@@ -29655,10 +29662,10 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="41" width="9.4251012145749"/>
   </cols>
   <sheetData>
@@ -29832,12 +29839,12 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.24696356275304"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.6032388663968"/>
@@ -30289,14 +30296,14 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.57085020242915"/>

--- a/bika/lims/setupdata/test/test.xlsx
+++ b/bika/lims/setupdata/test/test.xlsx
@@ -275,7 +275,7 @@
     <t xml:space="preserve">Analysis Request</t>
   </si>
   <si>
-    <t xml:space="preserve">{sampleId}-R{seq:d}</t>
+    <t xml:space="preserve">{sampleId}-R{seq:02d}</t>
   </si>
   <si>
     <t xml:space="preserve">counter</t>
@@ -6133,7 +6133,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="99.834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="100.692307692308"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -6203,8 +6203,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6254,8 +6254,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6356,8 +6356,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -6696,14 +6696,14 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.2793522267206"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.31983805668016"/>
   </cols>
   <sheetData>
@@ -6881,10 +6881,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="40" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="40" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="40" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7060,12 +7060,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7286,8 +7286,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7397,13 +7397,13 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="1023" min="9" style="0" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.78542510121457"/>
   </cols>
@@ -7833,10 +7833,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1018" min="9" style="0" width="8.57085020242915"/>
@@ -8128,8 +8128,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1018" min="4" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.1417004048583"/>
@@ -8196,20 +8196,20 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="5" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="5" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.21457489878543"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="5" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -8558,11 +8558,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="58.4858299595142"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="86" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8819,8 +8819,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8961,9 +8961,9 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9191,7 +9191,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="21" min="2" style="0" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
@@ -9470,8 +9470,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -9590,26 +9590,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10761,18 +10761,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="40.2753036437247"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -10952,17 +10952,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -11137,9 +11137,9 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5708502024291"/>
   </cols>
@@ -11273,15 +11273,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.71255060728745"/>
   </cols>
@@ -12143,8 +12143,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.74898785425101"/>
   </cols>
   <sheetData>
@@ -12545,15 +12545,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.35627530364372"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.71255060728745"/>
   </cols>
@@ -12772,15 +12772,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -12874,9 +12874,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12977,9 +12977,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.2753036437247"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.5951417004049"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.31983805668016"/>
   </cols>
   <sheetData>
@@ -13115,7 +13115,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -13723,11 +13723,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.10526315789474"/>
@@ -13741,7 +13741,7 @@
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="23" min="22" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.21052631578947"/>
@@ -16052,8 +16052,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.165991902834"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -16103,8 +16103,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -16154,10 +16154,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -16229,7 +16229,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="973" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="5.1417004048583"/>
   </cols>
@@ -16438,16 +16438,16 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -17509,9 +17509,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.7044534412955"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="997" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="5.1417004048583"/>
   </cols>
@@ -18986,10 +18986,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.46153846153846"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -19139,9 +19139,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="30.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -19360,10 +19360,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="7" min="5" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
@@ -24852,12 +24852,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.1052631578947"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
@@ -25017,7 +25017,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -25193,11 +25193,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -25262,8 +25262,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -25428,10 +25428,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="6" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -25867,20 +25867,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.46153846153846"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26013,10 +26014,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -26206,11 +26207,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.3846153846154"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.21457489878543"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="22.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26315,10 +26317,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.49797570850202"/>
@@ -26326,8 +26328,9 @@
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="99.1902834008097"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="100.048582995951"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26466,10 +26469,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -26544,8 +26547,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.7044534412955"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -26630,16 +26633,17 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26762,14 +26766,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.9" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26890,9 +26896,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.49797570850202"/>
@@ -26900,7 +26906,8 @@
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27109,10 +27116,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -27187,9 +27194,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -27265,8 +27272,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -27345,10 +27352,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="40" width="8.24696356275304"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="40" width="6"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="40" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -27507,8 +27514,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
@@ -27905,10 +27912,10 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="1023" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.1417004048583"/>
   </cols>
@@ -29656,10 +29663,10 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="41" width="9.4251012145749"/>
   </cols>
   <sheetData>
@@ -29833,9 +29840,9 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.24696356275304"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.3886639676113"/>
@@ -30290,14 +30297,14 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.57085020242915"/>

--- a/bika/lims/setupdata/test/test.xlsx
+++ b/bika/lims/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="64"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -72,6 +72,7 @@
     <sheet name="Worksheet Template Layouts" sheetId="62" state="visible" r:id="rId63"/>
     <sheet name="Setup" sheetId="63" state="visible" r:id="rId64"/>
     <sheet name="Constants" sheetId="64" state="visible" r:id="rId65"/>
+    <sheet name="Unit Conversions" sheetId="65" state="visible" r:id="rId66"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -194,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3962" uniqueCount="1615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3983" uniqueCount="1629">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -5039,6 +5040,48 @@
   </si>
   <si>
     <t xml:space="preserve">ZWL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">converted_unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Conversions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit  Conversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mg/L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value * 0.03 * 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert mg/L to a percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mg/g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value * 0.03 * 100 * 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert mg/L to a mg/g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ºC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ºF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Value * 9 / 5) + 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert Celcius to Fahrenheit</t>
   </si>
 </sst>
 </file>
@@ -6154,12 +6197,12 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="1:1 A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="104.226720647773"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="105.19028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -6224,7 +6267,7 @@
   <dimension ref="1:10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O11" activeCellId="1" sqref="1:1 O11"/>
+      <selection pane="topLeft" activeCell="O11" activeCellId="0" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6236,9 +6279,9 @@
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.57085020242915"/>
@@ -6879,8 +6922,8 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6948,13 +6991,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="1:1 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6999,13 +7042,13 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O60" activeCellId="1" sqref="1:1 O60"/>
+      <selection pane="topLeft" activeCell="O60" activeCellId="0" sqref="O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7101,13 +7144,13 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I23" activeCellId="1" sqref="1:1 I23"/>
+      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -7438,7 +7481,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="1:1 B10"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7446,14 +7489,14 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.31983805668016"/>
   </cols>
   <sheetData>
@@ -7626,15 +7669,15 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="40" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="40" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="40" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7805,17 +7848,17 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="1:1 B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8031,13 +8074,13 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="1:1 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8141,19 +8184,19 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="1:1 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="1023" min="9" style="0" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.78542510121457"/>
   </cols>
@@ -8578,18 +8621,18 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="1" sqref="1:1 C8"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="5" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="5" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.21457489878543"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="5" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="5" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="5" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="5" width="9.10526315789474"/>
@@ -8935,15 +8978,15 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="1:1 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1018" min="9" style="0" width="8.57085020242915"/>
@@ -9230,13 +9273,13 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="1:1 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1018" min="4" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.1417004048583"/>
@@ -9303,16 +9346,16 @@
   <dimension ref="1:14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="60.9514170040486"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="61.4858299595142"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="86" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9564,13 +9607,13 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="1:1 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9705,7 +9748,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="1:1 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -9936,12 +9979,12 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="1" sqref="1:1 A25"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="21" min="2" style="0" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
@@ -10215,13 +10258,13 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="1:1 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -10335,31 +10378,31 @@
   <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="1" sqref="1:1 D37"/>
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -11506,23 +11549,23 @@
   <dimension ref="A1:L65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="1" sqref="1:1 I6"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="41.8825910931174"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -11697,22 +11740,22 @@
   <dimension ref="A1:K65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="38.5627530364372"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -11880,14 +11923,14 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="1:1 C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.74898785425101"/>
   </cols>
   <sheetData>
@@ -12283,16 +12326,16 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="1" sqref="1:1 D28"/>
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5708502024291"/>
   </cols>
@@ -12421,20 +12464,20 @@
   <dimension ref="A1:K65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O26" activeCellId="1" sqref="1:1 O26"/>
+      <selection pane="topLeft" activeCell="O26" activeCellId="0" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.71255060728745"/>
   </cols>
@@ -13290,19 +13333,19 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="1" sqref="1:1 G4"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.35627530364372"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.71255060728745"/>
@@ -13517,20 +13560,20 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="1:1 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -13619,14 +13662,14 @@
   <dimension ref="1:6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="1:1 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13722,14 +13765,14 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="1:1 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.2024291497976"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.6315789473684"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.31983805668016"/>
   </cols>
   <sheetData>
@@ -13860,12 +13903,12 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="1" sqref="1:1 B18"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -14468,16 +14511,16 @@
   <dimension ref="A1:AE28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L33" activeCellId="1" sqref="1:1 L33"/>
+      <selection pane="topLeft" activeCell="L33" activeCellId="0" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.10526315789474"/>
@@ -16797,13 +16840,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.0971659919028"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -16848,13 +16891,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="1:1 B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -16899,7 +16942,7 @@
   <dimension ref="A1:Y89"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="1" sqref="1:1 F20"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -16907,16 +16950,16 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="32.5627530364372"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -17973,15 +18016,15 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="1" sqref="1:1 B22"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -18045,7 +18088,7 @@
   <dimension ref="1:15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="1:1 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -18053,7 +18096,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="973" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="5.1417004048583"/>
   </cols>
@@ -18254,12 +18297,12 @@
   <dimension ref="1:103"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="1:1 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.2064777327935"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="997" min="5" style="0" width="8.57085020242915"/>
@@ -19731,15 +19774,15 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="1:1 D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.46153846153846"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -19884,14 +19927,14 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="1" sqref="1:1 A21"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -20105,15 +20148,15 @@
   <dimension ref="A1:I259"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M15" activeCellId="1" sqref="1:1 M15"/>
+      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="7" min="5" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
@@ -25597,17 +25640,17 @@
   <dimension ref="1:5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="1" sqref="1:1 C15"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
@@ -25760,7 +25803,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="1:1 B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -25938,16 +25981,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -26007,13 +26049,13 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="1:1 A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -26173,15 +26215,15 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E51" activeCellId="1" sqref="1:1 E51"/>
+      <selection pane="topLeft" activeCell="E51" activeCellId="0" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -26366,15 +26408,15 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="1:1 A11"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.4210526315789"/>
     <col collapsed="false" hidden="false" max="6" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -26805,19 +26847,19 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="1:1 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.46153846153846"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.4615384615385"/>
@@ -26952,12 +26994,12 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="1:1 A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.668016194332"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.21457489878543"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
@@ -27062,15 +27104,15 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="1:1 A9"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.49797570850202"/>
@@ -27078,8 +27120,8 @@
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.8137651821862"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="103.692307692308"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="104.546558704453"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -27214,15 +27256,15 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="1" sqref="1:1 A21"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -27292,13 +27334,13 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="1:1 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.6315789473684"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -27375,7 +27417,7 @@
   <dimension ref="1:3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="1" sqref="1:1 E4"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -27383,11 +27425,11 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.0323886639676"/>
@@ -27511,18 +27553,18 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="1:1 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="11" min="9" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57085020242915"/>
@@ -27641,14 +27683,14 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="1:1 A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.49797570850202"/>
@@ -27656,7 +27698,7 @@
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -27861,15 +27903,15 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="1:1 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -27939,15 +27981,15 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="40" width="8.24696356275304"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="40" width="6"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="40" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -28101,14 +28143,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="1:1 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -28179,13 +28221,13 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="1:1 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -28259,12 +28301,12 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.8178137651822"/>
@@ -28656,16 +28698,16 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="1:1 D12"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="1023" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.1417004048583"/>
   </cols>
@@ -29136,7 +29178,7 @@
   <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -30398,6 +30440,329 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="1:10"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3562753036437"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.7125506072875"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.7975708502024"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.71255060728745"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.57085020242915"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="17" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="AMI1" s="34"/>
+      <c r="AMJ1" s="34"/>
+    </row>
+    <row r="2" s="59" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="28" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AMI2" s="61"/>
+      <c r="AMJ2" s="61"/>
+    </row>
+    <row r="3" s="17" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>950</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AMI3" s="34"/>
+      <c r="AMJ3" s="34"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="62" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="62" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="64"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="62" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" error="Select an entry from the drop down list" errorTitle="Invalid entry" operator="equal" prompt="If the contact wants more than one publication method and the combination is not on the list, enter them by hand and separate with commas" promptTitle="Select valid publication preferences from the drop-down list" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N4:N10" type="list">
+      <formula1>Constants!$H$2:$H$20</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Select 0 or 1  from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (True) or 0 (False) from the drop-down menu" promptTitle="Is  the contact permitted file attachments for emailed results?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P4:P10" type="list">
+      <formula1>Constants!$G$2:$G$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -30406,7 +30771,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H52" activeCellId="1" sqref="1:1 H52"/>
+      <selection pane="topLeft" activeCell="H52" activeCellId="0" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -30416,7 +30781,7 @@
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.85425101214575"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="41" width="9.4251012145749"/>
   </cols>
   <sheetData>
@@ -30582,7 +30947,7 @@
   <dimension ref="1:8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="1" sqref="1:1 H9"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -30590,9 +30955,9 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.24696356275304"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.3886639676113"/>
@@ -31039,7 +31404,7 @@
   <dimension ref="1:10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -31051,9 +31416,9 @@
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.57085020242915"/>

--- a/bika/lims/setupdata/test/test.xlsx
+++ b/bika/lims/setupdata/test/test.xlsx
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3983" uniqueCount="1629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3983" uniqueCount="1628">
   <si>
     <t xml:space="preserve">unit</t>
   </si>
@@ -224,7 +224,7 @@
     <t xml:space="preserve">Description</t>
   </si>
   <si>
-    <t xml:space="preserve">mg/L</t>
+    <t xml:space="preserve">mg/l</t>
   </si>
   <si>
     <t xml:space="preserve">%</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">Value * 0.03 * 100</t>
   </si>
   <si>
-    <t xml:space="preserve">Convert mg/L to a percentage</t>
+    <t xml:space="preserve">Convert mg/l to a percentage</t>
   </si>
   <si>
     <t xml:space="preserve">mg/g</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">Value * 0.03 * 100 * 10</t>
   </si>
   <si>
-    <t xml:space="preserve">Convert mg/L to a mg/g</t>
+    <t xml:space="preserve">Convert mg/l to a mg/g</t>
   </si>
   <si>
     <t xml:space="preserve">ºC</t>
@@ -3387,9 +3387,6 @@
   </si>
   <si>
     <t xml:space="preserve">lab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mg/l</t>
   </si>
   <si>
     <t xml:space="preserve">COD</t>
@@ -6197,21 +6194,21 @@
   <dimension ref="1:10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.57085020242915"/>
@@ -6532,9 +6529,9 @@
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.57085020242915"/>
@@ -6829,9 +6826,9 @@
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.57085020242915"/>
@@ -7546,8 +7543,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7597,8 +7594,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7699,8 +7696,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -8039,14 +8036,14 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.31983805668016"/>
   </cols>
   <sheetData>
@@ -8226,7 +8223,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="48" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="48" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -8403,11 +8400,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
@@ -8630,7 +8627,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8739,7 +8736,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="106.153846153846"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="107.012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -8810,13 +8807,13 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="1023" min="9" style="0" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.78542510121457"/>
   </cols>
@@ -9247,9 +9244,9 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1018" min="9" style="0" width="8.57085020242915"/>
@@ -9541,8 +9538,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1018" min="4" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.1417004048583"/>
@@ -9615,10 +9612,10 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="61.914979757085"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="86" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9875,8 +9872,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10247,7 +10244,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="21" min="2" style="0" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
@@ -10526,8 +10523,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -10646,26 +10643,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -11817,18 +11814,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="42.5263157894737"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -12009,12 +12006,12 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="12" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="12" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="12" width="6.21457489878543"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="12" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="12" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="12" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="12" width="9.10526315789474"/>
@@ -12365,17 +12362,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="39.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -12550,9 +12547,9 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5708502024291"/>
   </cols>
@@ -12686,15 +12683,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.6720647773279"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.71255060728745"/>
   </cols>
@@ -13555,14 +13552,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.35627530364372"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.71255060728745"/>
@@ -13782,15 +13779,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -13884,9 +13881,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13987,9 +13984,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.0607287449393"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.5951417004049"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.31983805668016"/>
   </cols>
   <sheetData>
@@ -14125,7 +14122,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -14733,11 +14730,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="32.1376518218623"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.10526315789474"/>
@@ -15154,7 +15151,7 @@
         <v>365</v>
       </c>
       <c r="J6" s="151" t="s">
-        <v>1064</v>
+        <v>9</v>
       </c>
       <c r="K6" s="2" t="n">
         <v>2</v>
@@ -15209,13 +15206,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D7" s="150" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E7" s="150" t="s">
         <v>1063</v>
@@ -15233,7 +15230,7 @@
         <v>365</v>
       </c>
       <c r="J7" s="151" t="s">
-        <v>1064</v>
+        <v>9</v>
       </c>
       <c r="K7" s="2" t="n">
         <v>2</v>
@@ -15288,13 +15285,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="150" t="s">
         <v>1067</v>
-      </c>
-      <c r="D8" s="150" t="s">
-        <v>1068</v>
       </c>
       <c r="E8" s="150" t="s">
         <v>1063</v>
@@ -15312,7 +15309,7 @@
         <v>365</v>
       </c>
       <c r="J8" s="151" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="K8" s="2" t="n">
         <v>2</v>
@@ -15367,13 +15364,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>1071</v>
-      </c>
       <c r="D9" s="150" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E9" s="150" t="s">
         <v>1063</v>
@@ -15391,7 +15388,7 @@
         <v>365</v>
       </c>
       <c r="J9" s="151" t="s">
-        <v>1064</v>
+        <v>9</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>2</v>
@@ -15446,13 +15443,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>1073</v>
-      </c>
       <c r="D10" s="150" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E10" s="150" t="s">
         <v>1063</v>
@@ -15470,7 +15467,7 @@
         <v>365</v>
       </c>
       <c r="J10" s="151" t="s">
-        <v>1064</v>
+        <v>9</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>2</v>
@@ -15525,13 +15522,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>1074</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>1075</v>
-      </c>
       <c r="D11" s="150" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E11" s="150" t="s">
         <v>1063</v>
@@ -15549,7 +15546,7 @@
         <v>365</v>
       </c>
       <c r="J11" s="151" t="s">
-        <v>1064</v>
+        <v>9</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>2</v>
@@ -15604,13 +15601,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>1076</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>1077</v>
-      </c>
       <c r="D12" s="150" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E12" s="150" t="s">
         <v>1063</v>
@@ -15628,7 +15625,7 @@
         <v>365</v>
       </c>
       <c r="J12" s="151" t="s">
-        <v>1064</v>
+        <v>9</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>2</v>
@@ -15683,16 +15680,16 @@
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>1080</v>
-      </c>
       <c r="D13" s="150" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E13" s="150" t="s">
         <v>1063</v>
@@ -15767,13 +15764,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>1082</v>
-      </c>
       <c r="D14" s="150" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E14" s="150" t="s">
         <v>1063</v>
@@ -15791,7 +15788,7 @@
         <v>365</v>
       </c>
       <c r="J14" s="151" t="s">
-        <v>1064</v>
+        <v>9</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>2</v>
@@ -15846,13 +15843,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="D15" s="150" t="s">
         <v>1084</v>
-      </c>
-      <c r="D15" s="150" t="s">
-        <v>1085</v>
       </c>
       <c r="E15" s="150" t="s">
         <v>1063</v>
@@ -15923,13 +15920,13 @@
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>1087</v>
-      </c>
       <c r="D16" s="150" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E16" s="150" t="s">
         <v>1063</v>
@@ -15947,7 +15944,7 @@
         <v>365</v>
       </c>
       <c r="J16" s="151" t="s">
-        <v>1064</v>
+        <v>9</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>2</v>
@@ -16002,13 +15999,13 @@
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D17" s="150" t="s">
         <v>1089</v>
-      </c>
-      <c r="D17" s="150" t="s">
-        <v>1090</v>
       </c>
       <c r="E17" s="150" t="s">
         <v>1063</v>
@@ -16026,7 +16023,7 @@
         <v>365</v>
       </c>
       <c r="J17" s="151" t="s">
-        <v>1064</v>
+        <v>9</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>2</v>
@@ -16081,13 +16078,13 @@
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="150" t="s">
         <v>1092</v>
-      </c>
-      <c r="D18" s="150" t="s">
-        <v>1093</v>
       </c>
       <c r="E18" s="150" t="s">
         <v>1063</v>
@@ -16105,7 +16102,7 @@
         <v>365</v>
       </c>
       <c r="J18" s="151" t="s">
-        <v>1064</v>
+        <v>9</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>2</v>
@@ -16162,13 +16159,13 @@
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>1094</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>1095</v>
-      </c>
       <c r="D19" s="150" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E19" s="150" t="s">
         <v>1063</v>
@@ -16186,7 +16183,7 @@
         <v>365</v>
       </c>
       <c r="J19" s="151" t="s">
-        <v>1064</v>
+        <v>9</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>2</v>
@@ -16241,16 +16238,16 @@
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="155" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B20" s="155" t="s">
         <v>1096</v>
-      </c>
-      <c r="B20" s="155" t="s">
-        <v>1097</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>259</v>
       </c>
       <c r="D20" s="150" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E20" s="150" t="s">
         <v>1063</v>
@@ -16268,7 +16265,7 @@
         <v>365</v>
       </c>
       <c r="J20" s="151" t="s">
-        <v>1064</v>
+        <v>9</v>
       </c>
       <c r="K20" s="2" t="n">
         <v>2</v>
@@ -16326,13 +16323,13 @@
         <v>981</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>1099</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="150" t="s">
         <v>1100</v>
-      </c>
-      <c r="D21" s="150" t="s">
-        <v>1101</v>
       </c>
       <c r="E21" s="150" t="s">
         <v>1063</v>
@@ -16407,16 +16404,16 @@
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>1102</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>1103</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>1104</v>
-      </c>
       <c r="D22" s="150" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E22" s="150" t="s">
         <v>1063</v>
@@ -16487,16 +16484,16 @@
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>1105</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>1106</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D23" s="150" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E23" s="150" t="s">
         <v>1063</v>
@@ -16567,16 +16564,16 @@
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D24" s="150" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E24" s="150" t="s">
         <v>1063</v>
@@ -16647,16 +16644,16 @@
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D25" s="150" t="s">
         <v>1108</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D25" s="150" t="s">
-        <v>1109</v>
       </c>
       <c r="E25" s="150" t="s">
         <v>1063</v>
@@ -16727,16 +16724,16 @@
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>1110</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D26" s="150" t="s">
         <v>1111</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D26" s="150" t="s">
-        <v>1112</v>
       </c>
       <c r="E26" s="150" t="s">
         <v>1063</v>
@@ -16807,16 +16804,16 @@
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>1113</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D27" s="150" t="s">
         <v>1114</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D27" s="150" t="s">
-        <v>1115</v>
       </c>
       <c r="E27" s="150" t="s">
         <v>1063</v>
@@ -16887,16 +16884,16 @@
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>1116</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D28" s="150" t="s">
         <v>1117</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D28" s="150" t="s">
-        <v>1118</v>
       </c>
       <c r="E28" s="150" t="s">
         <v>1063</v>
@@ -17062,31 +17059,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.9514170040486"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1119</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B2" s="25"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>1122</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>1123</v>
       </c>
     </row>
   </sheetData>
@@ -17114,8 +17111,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.74898785425101"/>
   </cols>
   <sheetData>
@@ -17516,28 +17513,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B2" s="25"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>900</v>
@@ -17567,17 +17564,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>987</v>
@@ -17594,13 +17591,13 @@
     </row>
     <row r="2" s="46" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C2" s="25"/>
     </row>
     <row r="3" s="18" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>992</v>
@@ -17642,26 +17639,26 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="973" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="5.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="24.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>1128</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>1129</v>
       </c>
       <c r="AMJ1" s="2"/>
     </row>
     <row r="2" s="46" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C2" s="26"/>
       <c r="AMJ2" s="58"/>
@@ -17671,19 +17668,19 @@
         <v>252</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C3" s="156" t="s">
         <v>1131</v>
-      </c>
-      <c r="C3" s="156" t="s">
-        <v>1132</v>
       </c>
       <c r="AMJ3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="70" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C4" s="82" t="n">
         <v>0</v>
@@ -17691,10 +17688,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="70" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C5" s="82" t="n">
         <v>1</v>
@@ -17702,10 +17699,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="70" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C6" s="82" t="n">
         <v>2</v>
@@ -17713,10 +17710,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="70" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C7" s="82" t="n">
         <v>0</v>
@@ -17724,10 +17721,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="70" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C8" s="82" t="n">
         <v>1</v>
@@ -17735,10 +17732,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="70" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C9" s="82" t="n">
         <v>2</v>
@@ -17746,10 +17743,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="70" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C10" s="82" t="n">
         <v>0</v>
@@ -17757,10 +17754,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="70" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C11" s="82" t="n">
         <v>1</v>
@@ -17768,10 +17765,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="70" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C12" s="82" t="n">
         <v>2</v>
@@ -17779,10 +17776,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="70" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C13" s="82" t="n">
         <v>0</v>
@@ -17790,10 +17787,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="70" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C14" s="82" t="n">
         <v>1</v>
@@ -17801,10 +17798,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="70" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C15" s="82" t="n">
         <v>2</v>
@@ -17848,7 +17845,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8502024291498"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="997" min="5" style="0" width="8.57085020242915"/>
@@ -17857,21 +17854,21 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="24.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>1136</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>1137</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="2" s="46" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="26"/>
@@ -17880,16 +17877,16 @@
     </row>
     <row r="3" s="18" customFormat="true" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B3" s="79" t="s">
         <v>1140</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="C3" s="79" t="s">
         <v>1141</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="D3" s="79" t="s">
         <v>1142</v>
-      </c>
-      <c r="D3" s="79" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17900,7 +17897,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D4" s="32" t="n">
         <v>0.1</v>
@@ -17953,13 +17950,13 @@
         <v>1052</v>
       </c>
       <c r="B8" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>1145</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="D8" s="32" t="s">
         <v>1146</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18023,13 +18020,13 @@
         <v>1057</v>
       </c>
       <c r="B13" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>1145</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="D13" s="32" t="s">
         <v>1146</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18093,18 +18090,18 @@
         <v>1061</v>
       </c>
       <c r="B18" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C18" s="32" t="s">
         <v>1145</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="D18" s="32" t="s">
         <v>1146</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="70" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B19" s="32" t="n">
         <v>0</v>
@@ -18118,7 +18115,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="70" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B20" s="32" t="n">
         <v>2.01</v>
@@ -18132,7 +18129,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="70" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B21" s="32" t="n">
         <v>4.01</v>
@@ -18146,7 +18143,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="70" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B22" s="32" t="n">
         <v>6.01</v>
@@ -18160,21 +18157,21 @@
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="70" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B23" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C23" s="32" t="s">
         <v>1145</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="D23" s="32" t="s">
         <v>1146</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="70" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B24" s="32" t="n">
         <v>0</v>
@@ -18188,7 +18185,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="70" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B25" s="32" t="n">
         <v>2.01</v>
@@ -18202,7 +18199,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="70" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B26" s="32" t="n">
         <v>4.01</v>
@@ -18216,7 +18213,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="70" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B27" s="32" t="n">
         <v>6.01</v>
@@ -18230,21 +18227,21 @@
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="70" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B28" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C28" s="32" t="s">
         <v>1145</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="D28" s="32" t="s">
         <v>1146</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="70" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B29" s="32" t="n">
         <v>0</v>
@@ -18258,7 +18255,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="70" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B30" s="32" t="n">
         <v>2.01</v>
@@ -18272,7 +18269,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="70" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B31" s="32" t="n">
         <v>4.01</v>
@@ -18286,7 +18283,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="70" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B32" s="32" t="n">
         <v>6.01</v>
@@ -18300,21 +18297,21 @@
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="70" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B33" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C33" s="32" t="s">
         <v>1145</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="D33" s="32" t="s">
         <v>1146</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="70" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B34" s="32" t="n">
         <v>0</v>
@@ -18328,7 +18325,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="70" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B35" s="32" t="n">
         <v>2.01</v>
@@ -18342,7 +18339,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="70" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B36" s="32" t="n">
         <v>4.01</v>
@@ -18356,7 +18353,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="70" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B37" s="32" t="n">
         <v>6.01</v>
@@ -18370,21 +18367,21 @@
     </row>
     <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="70" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B38" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C38" s="32" t="s">
         <v>1145</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="D38" s="32" t="s">
         <v>1146</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="70" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B39" s="32" t="n">
         <v>0</v>
@@ -18398,7 +18395,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="70" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B40" s="32" t="n">
         <v>2.01</v>
@@ -18412,7 +18409,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="70" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B41" s="32" t="n">
         <v>4.01</v>
@@ -18426,7 +18423,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="70" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B42" s="32" t="n">
         <v>6.01</v>
@@ -18440,21 +18437,21 @@
     </row>
     <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="70" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B43" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C43" s="32" t="s">
         <v>1145</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="D43" s="32" t="s">
         <v>1146</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="70" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B44" s="32" t="n">
         <v>0</v>
@@ -18468,7 +18465,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="70" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B45" s="32" t="n">
         <v>2.01</v>
@@ -18482,7 +18479,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="70" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B46" s="32" t="n">
         <v>4.01</v>
@@ -18496,7 +18493,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="70" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B47" s="32" t="n">
         <v>6.01</v>
@@ -18510,21 +18507,21 @@
     </row>
     <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="70" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B48" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C48" s="32" t="s">
         <v>1145</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="D48" s="32" t="s">
         <v>1146</v>
-      </c>
-      <c r="D48" s="32" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="70" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B49" s="32" t="n">
         <v>0</v>
@@ -18538,7 +18535,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="70" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B50" s="32" t="n">
         <v>2.01</v>
@@ -18552,7 +18549,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="70" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B51" s="32" t="n">
         <v>4.01</v>
@@ -18566,7 +18563,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="70" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B52" s="32" t="n">
         <v>6.01</v>
@@ -18580,21 +18577,21 @@
     </row>
     <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="70" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B53" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C53" s="32" t="s">
         <v>1145</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="D53" s="32" t="s">
         <v>1146</v>
-      </c>
-      <c r="D53" s="32" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="70" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B54" s="32" t="n">
         <v>0</v>
@@ -18608,7 +18605,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="70" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B55" s="32" t="n">
         <v>2.01</v>
@@ -18622,7 +18619,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="70" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B56" s="32" t="n">
         <v>4.01</v>
@@ -18636,7 +18633,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="70" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B57" s="32" t="n">
         <v>6.01</v>
@@ -18650,21 +18647,21 @@
     </row>
     <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="70" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B58" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C58" s="32" t="s">
         <v>1145</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="D58" s="32" t="s">
         <v>1146</v>
-      </c>
-      <c r="D58" s="32" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="70" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B59" s="32" t="n">
         <v>0</v>
@@ -18678,7 +18675,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="70" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B60" s="32" t="n">
         <v>2.01</v>
@@ -18692,7 +18689,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="70" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B61" s="32" t="n">
         <v>4.01</v>
@@ -18706,7 +18703,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="70" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B62" s="32" t="n">
         <v>6.01</v>
@@ -18720,21 +18717,21 @@
     </row>
     <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="70" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B63" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C63" s="32" t="s">
         <v>1145</v>
       </c>
-      <c r="C63" s="32" t="s">
+      <c r="D63" s="32" t="s">
         <v>1146</v>
-      </c>
-      <c r="D63" s="32" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="70" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B64" s="32" t="n">
         <v>0</v>
@@ -18748,7 +18745,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="70" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B65" s="32" t="n">
         <v>2.01</v>
@@ -18762,7 +18759,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="70" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B66" s="32" t="n">
         <v>4.01</v>
@@ -18776,7 +18773,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="70" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B67" s="32" t="n">
         <v>6.01</v>
@@ -18790,21 +18787,21 @@
     </row>
     <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="70" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B68" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C68" s="32" t="s">
         <v>1145</v>
       </c>
-      <c r="C68" s="32" t="s">
+      <c r="D68" s="32" t="s">
         <v>1146</v>
-      </c>
-      <c r="D68" s="32" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="70" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B69" s="32" t="n">
         <v>0</v>
@@ -18818,7 +18815,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="70" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B70" s="32" t="n">
         <v>2.01</v>
@@ -18832,7 +18829,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="70" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B71" s="32" t="n">
         <v>4.01</v>
@@ -18846,7 +18843,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="70" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B72" s="32" t="n">
         <v>6.01</v>
@@ -18860,21 +18857,21 @@
     </row>
     <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="70" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B73" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C73" s="32" t="s">
         <v>1145</v>
       </c>
-      <c r="C73" s="32" t="s">
+      <c r="D73" s="32" t="s">
         <v>1146</v>
-      </c>
-      <c r="D73" s="32" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="70" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B74" s="32" t="n">
         <v>0</v>
@@ -18888,7 +18885,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="70" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B75" s="32" t="n">
         <v>2.01</v>
@@ -18902,7 +18899,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="70" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B76" s="32" t="n">
         <v>4.01</v>
@@ -18916,7 +18913,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="70" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B77" s="32" t="n">
         <v>6.01</v>
@@ -18930,21 +18927,21 @@
     </row>
     <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="70" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B78" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C78" s="32" t="s">
         <v>1145</v>
       </c>
-      <c r="C78" s="32" t="s">
+      <c r="D78" s="32" t="s">
         <v>1146</v>
-      </c>
-      <c r="D78" s="32" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="70" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B79" s="32" t="n">
         <v>0</v>
@@ -18958,7 +18955,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="70" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B80" s="32" t="n">
         <v>2.01</v>
@@ -18972,7 +18969,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="70" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B81" s="32" t="n">
         <v>4.01</v>
@@ -18986,7 +18983,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="70" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B82" s="32" t="n">
         <v>6.01</v>
@@ -19000,16 +18997,16 @@
     </row>
     <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="70" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B83" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C83" s="32" t="s">
         <v>1145</v>
       </c>
-      <c r="C83" s="32" t="s">
+      <c r="D83" s="32" t="s">
         <v>1146</v>
-      </c>
-      <c r="D83" s="32" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19073,18 +19070,18 @@
         <v>981</v>
       </c>
       <c r="B88" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C88" s="32" t="s">
         <v>1145</v>
       </c>
-      <c r="C88" s="32" t="s">
+      <c r="D88" s="32" t="s">
         <v>1146</v>
-      </c>
-      <c r="D88" s="32" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="70" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B89" s="32" t="n">
         <v>0</v>
@@ -19098,7 +19095,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="70" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B90" s="32" t="n">
         <v>2.01</v>
@@ -19112,7 +19109,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="70" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B91" s="32" t="n">
         <v>4.01</v>
@@ -19126,7 +19123,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="70" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B92" s="32" t="n">
         <v>6.01</v>
@@ -19140,21 +19137,21 @@
     </row>
     <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="70" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B93" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C93" s="32" t="s">
         <v>1145</v>
       </c>
-      <c r="C93" s="32" t="s">
+      <c r="D93" s="32" t="s">
         <v>1146</v>
-      </c>
-      <c r="D93" s="32" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B94" s="32" t="n">
         <v>0</v>
@@ -19168,7 +19165,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B95" s="32" t="n">
         <v>2.01</v>
@@ -19182,7 +19179,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B96" s="32" t="n">
         <v>4.01</v>
@@ -19196,7 +19193,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B97" s="32" t="n">
         <v>6.01</v>
@@ -19210,21 +19207,21 @@
     </row>
     <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B98" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C98" s="32" t="s">
         <v>1145</v>
       </c>
-      <c r="C98" s="32" t="s">
+      <c r="D98" s="32" t="s">
         <v>1146</v>
-      </c>
-      <c r="D98" s="32" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="70" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B99" s="32" t="n">
         <v>0</v>
@@ -19238,7 +19235,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="70" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B100" s="32" t="n">
         <v>2.01</v>
@@ -19252,7 +19249,7 @@
     </row>
     <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="70" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B101" s="32" t="n">
         <v>4.01</v>
@@ -19266,7 +19263,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="70" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B102" s="32" t="n">
         <v>6.01</v>
@@ -19280,16 +19277,16 @@
     </row>
     <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="70" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B103" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C103" s="32" t="s">
         <v>1145</v>
       </c>
-      <c r="C103" s="32" t="s">
+      <c r="D103" s="32" t="s">
         <v>1146</v>
-      </c>
-      <c r="D103" s="32" t="s">
-        <v>1147</v>
       </c>
     </row>
   </sheetData>
@@ -19325,10 +19322,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.46153846153846"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -19345,10 +19342,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="50" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E1" s="50" t="s">
         <v>1148</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>1149</v>
       </c>
       <c r="F1" s="50" t="s">
         <v>877</v>
@@ -19356,7 +19353,7 @@
     </row>
     <row r="2" s="46" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C2" s="25"/>
     </row>
@@ -19371,10 +19368,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="59" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E3" s="59" t="s">
         <v>1151</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>1152</v>
       </c>
       <c r="F3" s="59" t="s">
         <v>877</v>
@@ -19383,13 +19380,13 @@
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="158"/>
       <c r="B4" s="48" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C4" s="159" t="s">
         <v>1153</v>
       </c>
-      <c r="C4" s="159" t="s">
+      <c r="D4" s="48" t="s">
         <v>1154</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19398,46 +19395,46 @@
         <v>984</v>
       </c>
       <c r="C5" s="159" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D5" s="48" t="s">
         <v>1156</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="158"/>
       <c r="B6" s="48" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C6" s="159" t="s">
         <v>1158</v>
       </c>
-      <c r="C6" s="159" t="s">
+      <c r="D6" s="48" t="s">
         <v>1159</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="158"/>
       <c r="B7" s="48" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C7" s="159" t="s">
         <v>1161</v>
       </c>
-      <c r="C7" s="159" t="s">
+      <c r="D7" s="48" t="s">
         <v>1162</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="158"/>
       <c r="B8" s="155" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C8" s="159" t="s">
         <v>1164</v>
       </c>
-      <c r="C8" s="159" t="s">
-        <v>1165</v>
-      </c>
       <c r="D8" s="48" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19478,37 +19475,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="50" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="50" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B1" s="50" t="s">
         <v>1166</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="2" s="46" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C2" s="25"/>
     </row>
     <row r="3" s="59" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="59" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="4" s="50" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="158" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B4" s="160" t="s">
         <v>1061</v>
@@ -19516,114 +19513,114 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="158" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B5" s="160" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="158" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B6" s="160" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="158" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B7" s="160" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="158" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B8" s="160" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="158" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B9" s="160" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="158" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B10" s="160" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="158" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B11" s="160" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="158" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B12" s="160" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="158" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B13" s="160" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="158" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B14" s="160" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="158" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B15" s="160" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="158" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B16" s="160" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="158" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B17" s="160" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="158" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B18" s="160" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19639,7 +19636,7 @@
         <v>984</v>
       </c>
       <c r="B20" s="160" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19647,15 +19644,15 @@
         <v>984</v>
       </c>
       <c r="B21" s="160" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="150" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B22" s="160" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
   </sheetData>
@@ -19699,10 +19696,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="7" min="5" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
@@ -19719,21 +19716,21 @@
         <v>576</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>1170</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>1171</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>1172</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="2" s="46" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D2" s="25"/>
     </row>
@@ -19748,16 +19745,16 @@
         <v>604</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>1175</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>1176</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="18" t="s">
         <v>1177</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19781,7 +19778,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19835,7 +19832,7 @@
         <v>538</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E7" s="12" t="n">
         <v>9</v>
@@ -19856,7 +19853,7 @@
         <v>538</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E8" s="12" t="n">
         <v>9</v>
@@ -19877,7 +19874,7 @@
         <v>538</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E9" s="12" t="n">
         <v>9</v>
@@ -19898,7 +19895,7 @@
         <v>538</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E10" s="12" t="n">
         <v>9</v>
@@ -19919,7 +19916,7 @@
         <v>538</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E11" s="12" t="n">
         <v>9</v>
@@ -19940,7 +19937,7 @@
         <v>538</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E12" s="12" t="n">
         <v>9</v>
@@ -19961,7 +19958,7 @@
         <v>538</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E13" s="12" t="n">
         <v>9</v>
@@ -19982,7 +19979,7 @@
         <v>538</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E14" s="12" t="n">
         <v>9</v>
@@ -20003,7 +20000,7 @@
         <v>538</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E15" s="12" t="n">
         <v>9</v>
@@ -20024,7 +20021,7 @@
         <v>538</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E16" s="12" t="n">
         <v>9</v>
@@ -20045,7 +20042,7 @@
         <v>538</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E17" s="12" t="n">
         <v>9</v>
@@ -20066,7 +20063,7 @@
         <v>538</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E18" s="12" t="n">
         <v>9</v>
@@ -20087,7 +20084,7 @@
         <v>538</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E19" s="12" t="n">
         <v>9</v>
@@ -20129,7 +20126,7 @@
         <v>538</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E21" s="12" t="n">
         <v>9</v>
@@ -20150,7 +20147,7 @@
         <v>538</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E22" s="12" t="n">
         <v>9</v>
@@ -20171,10 +20168,10 @@
         <v>538</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F23" s="12" t="n">
         <v>11</v>
@@ -20255,7 +20252,7 @@
         <v>542</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E27" s="12" t="n">
         <v>9</v>
@@ -20276,7 +20273,7 @@
         <v>542</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E28" s="12" t="n">
         <v>9</v>
@@ -20297,7 +20294,7 @@
         <v>542</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E29" s="12" t="n">
         <v>9</v>
@@ -20318,7 +20315,7 @@
         <v>542</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E30" s="12" t="n">
         <v>9</v>
@@ -20339,7 +20336,7 @@
         <v>542</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E31" s="12" t="n">
         <v>5</v>
@@ -20351,7 +20348,7 @@
         <v>10</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20363,7 +20360,7 @@
         <v>542</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E32" s="12" t="n">
         <v>9</v>
@@ -20384,7 +20381,7 @@
         <v>542</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E33" s="12" t="n">
         <v>9</v>
@@ -20405,7 +20402,7 @@
         <v>542</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E34" s="12" t="n">
         <v>9</v>
@@ -20426,7 +20423,7 @@
         <v>542</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E35" s="12" t="n">
         <v>9</v>
@@ -20447,7 +20444,7 @@
         <v>542</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E36" s="12" t="n">
         <v>9</v>
@@ -20468,7 +20465,7 @@
         <v>542</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E37" s="12" t="n">
         <v>9</v>
@@ -20489,7 +20486,7 @@
         <v>542</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E38" s="12" t="n">
         <v>9</v>
@@ -20510,7 +20507,7 @@
         <v>542</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E39" s="12" t="n">
         <v>9</v>
@@ -20552,7 +20549,7 @@
         <v>542</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E41" s="12" t="n">
         <v>9</v>
@@ -20573,7 +20570,7 @@
         <v>542</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E42" s="12" t="n">
         <v>9</v>
@@ -20594,7 +20591,7 @@
         <v>542</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E43" s="12" t="n">
         <v>9</v>
@@ -20678,7 +20675,7 @@
         <v>545</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E47" s="12" t="n">
         <v>9</v>
@@ -20699,7 +20696,7 @@
         <v>545</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E48" s="12" t="n">
         <v>9</v>
@@ -20720,7 +20717,7 @@
         <v>545</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E49" s="12" t="n">
         <v>9</v>
@@ -20741,7 +20738,7 @@
         <v>545</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E50" s="12" t="n">
         <v>9</v>
@@ -20762,7 +20759,7 @@
         <v>545</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E51" s="12" t="n">
         <v>9</v>
@@ -20783,7 +20780,7 @@
         <v>545</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E52" s="12" t="n">
         <v>9</v>
@@ -20804,7 +20801,7 @@
         <v>545</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E53" s="12" t="n">
         <v>9</v>
@@ -20825,7 +20822,7 @@
         <v>545</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E54" s="12" t="n">
         <v>9</v>
@@ -20846,7 +20843,7 @@
         <v>545</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E55" s="12" t="n">
         <v>9</v>
@@ -20867,7 +20864,7 @@
         <v>545</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E56" s="12" t="n">
         <v>9</v>
@@ -20888,7 +20885,7 @@
         <v>545</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E57" s="12" t="n">
         <v>9</v>
@@ -20909,7 +20906,7 @@
         <v>545</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E58" s="12" t="n">
         <v>9</v>
@@ -20930,7 +20927,7 @@
         <v>545</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E59" s="12" t="n">
         <v>9</v>
@@ -20972,7 +20969,7 @@
         <v>545</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E61" s="12" t="n">
         <v>9</v>
@@ -20993,7 +20990,7 @@
         <v>545</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E62" s="12" t="n">
         <v>9</v>
@@ -21014,7 +21011,7 @@
         <v>545</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E63" s="12" t="n">
         <v>9</v>
@@ -21098,7 +21095,7 @@
         <v>548</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E67" s="12" t="n">
         <v>9</v>
@@ -21119,7 +21116,7 @@
         <v>548</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E68" s="12" t="n">
         <v>9</v>
@@ -21140,7 +21137,7 @@
         <v>548</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E69" s="12" t="n">
         <v>9</v>
@@ -21161,7 +21158,7 @@
         <v>548</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E70" s="12" t="n">
         <v>9</v>
@@ -21182,7 +21179,7 @@
         <v>548</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E71" s="12" t="n">
         <v>9</v>
@@ -21203,7 +21200,7 @@
         <v>548</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E72" s="12" t="n">
         <v>9</v>
@@ -21224,7 +21221,7 @@
         <v>548</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E73" s="12" t="n">
         <v>9</v>
@@ -21245,7 +21242,7 @@
         <v>548</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E74" s="12" t="n">
         <v>9</v>
@@ -21266,7 +21263,7 @@
         <v>548</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E75" s="12" t="n">
         <v>9</v>
@@ -21287,7 +21284,7 @@
         <v>548</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E76" s="12" t="n">
         <v>9</v>
@@ -21308,7 +21305,7 @@
         <v>548</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E77" s="12" t="n">
         <v>9</v>
@@ -21329,7 +21326,7 @@
         <v>548</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E78" s="12" t="n">
         <v>9</v>
@@ -21350,7 +21347,7 @@
         <v>548</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E79" s="12" t="n">
         <v>9</v>
@@ -21392,7 +21389,7 @@
         <v>548</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E81" s="12" t="n">
         <v>9</v>
@@ -21413,7 +21410,7 @@
         <v>548</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E82" s="12" t="n">
         <v>9</v>
@@ -21434,7 +21431,7 @@
         <v>548</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E83" s="12" t="n">
         <v>9</v>
@@ -21518,7 +21515,7 @@
         <v>521</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E87" s="12" t="n">
         <v>9</v>
@@ -21539,7 +21536,7 @@
         <v>521</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E88" s="12" t="n">
         <v>9</v>
@@ -21560,7 +21557,7 @@
         <v>521</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E89" s="12" t="n">
         <v>9</v>
@@ -21581,7 +21578,7 @@
         <v>521</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E90" s="12" t="n">
         <v>9</v>
@@ -21602,7 +21599,7 @@
         <v>521</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E91" s="12" t="n">
         <v>9</v>
@@ -21623,7 +21620,7 @@
         <v>521</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E92" s="12" t="n">
         <v>9</v>
@@ -21644,7 +21641,7 @@
         <v>521</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E93" s="12" t="n">
         <v>9</v>
@@ -21665,7 +21662,7 @@
         <v>521</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E94" s="12" t="n">
         <v>9</v>
@@ -21686,7 +21683,7 @@
         <v>521</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E95" s="12" t="n">
         <v>9</v>
@@ -21707,7 +21704,7 @@
         <v>521</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E96" s="12" t="n">
         <v>9</v>
@@ -21728,7 +21725,7 @@
         <v>521</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E97" s="12" t="n">
         <v>9</v>
@@ -21749,7 +21746,7 @@
         <v>521</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E98" s="12" t="n">
         <v>9</v>
@@ -21770,7 +21767,7 @@
         <v>521</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E99" s="12" t="n">
         <v>9</v>
@@ -21812,7 +21809,7 @@
         <v>521</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E101" s="12" t="n">
         <v>9</v>
@@ -21833,7 +21830,7 @@
         <v>521</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E102" s="12" t="n">
         <v>9</v>
@@ -21854,7 +21851,7 @@
         <v>521</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E103" s="12" t="n">
         <v>9</v>
@@ -21938,7 +21935,7 @@
         <v>556</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E107" s="12" t="n">
         <v>9</v>
@@ -21959,7 +21956,7 @@
         <v>556</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E108" s="12" t="n">
         <v>9</v>
@@ -21980,7 +21977,7 @@
         <v>556</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E109" s="12" t="n">
         <v>9</v>
@@ -22001,7 +21998,7 @@
         <v>556</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E110" s="12" t="n">
         <v>9</v>
@@ -22022,7 +22019,7 @@
         <v>556</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E111" s="12" t="n">
         <v>9</v>
@@ -22043,7 +22040,7 @@
         <v>556</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E112" s="12" t="n">
         <v>9</v>
@@ -22064,7 +22061,7 @@
         <v>556</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E113" s="12" t="n">
         <v>9</v>
@@ -22085,7 +22082,7 @@
         <v>556</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E114" s="12" t="n">
         <v>9</v>
@@ -22106,7 +22103,7 @@
         <v>556</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E115" s="12" t="n">
         <v>9</v>
@@ -22127,7 +22124,7 @@
         <v>556</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E116" s="12" t="n">
         <v>9</v>
@@ -22148,7 +22145,7 @@
         <v>556</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E117" s="12" t="n">
         <v>9</v>
@@ -22169,7 +22166,7 @@
         <v>556</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E118" s="12" t="n">
         <v>9</v>
@@ -22190,7 +22187,7 @@
         <v>556</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E119" s="12" t="n">
         <v>9</v>
@@ -22232,7 +22229,7 @@
         <v>556</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E121" s="12" t="n">
         <v>9</v>
@@ -22253,7 +22250,7 @@
         <v>556</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E122" s="12" t="n">
         <v>9</v>
@@ -22274,7 +22271,7 @@
         <v>556</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E123" s="12" t="n">
         <v>9</v>
@@ -22358,7 +22355,7 @@
         <v>559</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E127" s="12" t="n">
         <v>9</v>
@@ -22379,7 +22376,7 @@
         <v>559</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E128" s="12" t="n">
         <v>9</v>
@@ -22400,7 +22397,7 @@
         <v>559</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E129" s="12" t="n">
         <v>9</v>
@@ -22421,7 +22418,7 @@
         <v>559</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E130" s="12" t="n">
         <v>9</v>
@@ -22442,7 +22439,7 @@
         <v>559</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E131" s="12" t="n">
         <v>9</v>
@@ -22463,7 +22460,7 @@
         <v>559</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E132" s="12" t="n">
         <v>9</v>
@@ -22484,7 +22481,7 @@
         <v>559</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E133" s="12" t="n">
         <v>9</v>
@@ -22505,7 +22502,7 @@
         <v>559</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E134" s="12" t="n">
         <v>9</v>
@@ -22526,7 +22523,7 @@
         <v>559</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E135" s="12" t="n">
         <v>9</v>
@@ -22547,7 +22544,7 @@
         <v>559</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E136" s="12" t="n">
         <v>9</v>
@@ -22568,7 +22565,7 @@
         <v>559</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E137" s="12" t="n">
         <v>9</v>
@@ -22589,7 +22586,7 @@
         <v>559</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E138" s="12" t="n">
         <v>9</v>
@@ -22610,7 +22607,7 @@
         <v>559</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E139" s="12" t="n">
         <v>9</v>
@@ -22652,7 +22649,7 @@
         <v>559</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E141" s="12" t="n">
         <v>9</v>
@@ -22673,7 +22670,7 @@
         <v>559</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E142" s="12" t="n">
         <v>9</v>
@@ -22694,7 +22691,7 @@
         <v>559</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E143" s="12" t="n">
         <v>9</v>
@@ -22778,7 +22775,7 @@
         <v>562</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E147" s="12" t="n">
         <v>9</v>
@@ -22799,7 +22796,7 @@
         <v>562</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E148" s="12" t="n">
         <v>9</v>
@@ -22820,7 +22817,7 @@
         <v>562</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E149" s="12" t="n">
         <v>9</v>
@@ -22841,7 +22838,7 @@
         <v>562</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E150" s="12" t="n">
         <v>9</v>
@@ -22862,7 +22859,7 @@
         <v>562</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E151" s="12" t="n">
         <v>9</v>
@@ -22883,7 +22880,7 @@
         <v>562</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E152" s="12" t="n">
         <v>9</v>
@@ -22904,7 +22901,7 @@
         <v>562</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E153" s="12" t="n">
         <v>9</v>
@@ -22925,7 +22922,7 @@
         <v>562</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E154" s="12" t="n">
         <v>9</v>
@@ -22946,7 +22943,7 @@
         <v>562</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E155" s="12" t="n">
         <v>9</v>
@@ -22967,7 +22964,7 @@
         <v>562</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E156" s="12" t="n">
         <v>9</v>
@@ -22988,7 +22985,7 @@
         <v>562</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E157" s="12" t="n">
         <v>9</v>
@@ -23009,7 +23006,7 @@
         <v>562</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E158" s="12" t="n">
         <v>9</v>
@@ -23030,7 +23027,7 @@
         <v>562</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E159" s="12" t="n">
         <v>9</v>
@@ -23072,7 +23069,7 @@
         <v>562</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E161" s="12" t="n">
         <v>9</v>
@@ -23093,7 +23090,7 @@
         <v>562</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E162" s="12" t="n">
         <v>9</v>
@@ -23114,7 +23111,7 @@
         <v>562</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E163" s="12" t="n">
         <v>9</v>
@@ -23198,7 +23195,7 @@
         <v>527</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E167" s="12" t="n">
         <v>9</v>
@@ -23219,7 +23216,7 @@
         <v>527</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E168" s="12" t="n">
         <v>9</v>
@@ -23240,7 +23237,7 @@
         <v>527</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E169" s="12" t="n">
         <v>9</v>
@@ -23261,7 +23258,7 @@
         <v>527</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E170" s="12" t="n">
         <v>9</v>
@@ -23282,7 +23279,7 @@
         <v>527</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E171" s="12" t="n">
         <v>9</v>
@@ -23303,7 +23300,7 @@
         <v>527</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E172" s="12" t="n">
         <v>9</v>
@@ -23324,7 +23321,7 @@
         <v>527</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E173" s="12" t="n">
         <v>9</v>
@@ -23345,7 +23342,7 @@
         <v>527</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E174" s="12" t="n">
         <v>9</v>
@@ -23366,7 +23363,7 @@
         <v>527</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E175" s="12" t="n">
         <v>9</v>
@@ -23387,7 +23384,7 @@
         <v>527</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E176" s="12" t="n">
         <v>9</v>
@@ -23408,7 +23405,7 @@
         <v>527</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E177" s="12" t="n">
         <v>9</v>
@@ -23429,7 +23426,7 @@
         <v>527</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E178" s="12" t="n">
         <v>9</v>
@@ -23450,7 +23447,7 @@
         <v>527</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E179" s="12" t="n">
         <v>9</v>
@@ -23492,7 +23489,7 @@
         <v>527</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E181" s="12" t="n">
         <v>9</v>
@@ -23513,7 +23510,7 @@
         <v>527</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E182" s="12" t="n">
         <v>9</v>
@@ -23534,7 +23531,7 @@
         <v>527</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E183" s="12" t="n">
         <v>9</v>
@@ -23618,7 +23615,7 @@
         <v>570</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E187" s="12" t="n">
         <v>9</v>
@@ -23639,7 +23636,7 @@
         <v>570</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E188" s="12" t="n">
         <v>9</v>
@@ -23660,7 +23657,7 @@
         <v>570</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E189" s="12" t="n">
         <v>9</v>
@@ -23681,7 +23678,7 @@
         <v>570</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E190" s="12" t="n">
         <v>9</v>
@@ -23702,7 +23699,7 @@
         <v>570</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E191" s="12" t="n">
         <v>9</v>
@@ -23723,7 +23720,7 @@
         <v>570</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E192" s="12" t="n">
         <v>9</v>
@@ -23744,7 +23741,7 @@
         <v>570</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E193" s="12" t="n">
         <v>9</v>
@@ -23765,7 +23762,7 @@
         <v>570</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E194" s="12" t="n">
         <v>9</v>
@@ -23786,7 +23783,7 @@
         <v>570</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E195" s="12" t="n">
         <v>9</v>
@@ -23807,7 +23804,7 @@
         <v>570</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E196" s="12" t="n">
         <v>9</v>
@@ -23828,7 +23825,7 @@
         <v>570</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E197" s="12" t="n">
         <v>9</v>
@@ -23849,7 +23846,7 @@
         <v>570</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E198" s="12" t="n">
         <v>9</v>
@@ -23870,7 +23867,7 @@
         <v>570</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E199" s="12" t="n">
         <v>9</v>
@@ -23912,7 +23909,7 @@
         <v>570</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E201" s="12" t="n">
         <v>9</v>
@@ -23933,7 +23930,7 @@
         <v>570</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E202" s="12" t="n">
         <v>9</v>
@@ -23954,7 +23951,7 @@
         <v>570</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E203" s="12" t="n">
         <v>9</v>
@@ -23968,7 +23965,7 @@
     </row>
     <row r="204" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B204" s="85"/>
       <c r="C204" s="85"/>
@@ -23987,7 +23984,7 @@
     </row>
     <row r="205" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B205" s="85"/>
       <c r="C205" s="85"/>
@@ -24006,12 +24003,12 @@
     </row>
     <row r="206" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B206" s="85"/>
       <c r="C206" s="85"/>
       <c r="D206" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E206" s="12" t="n">
         <v>3</v>
@@ -24025,12 +24022,12 @@
     </row>
     <row r="207" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B207" s="85"/>
       <c r="C207" s="85"/>
       <c r="D207" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E207" s="12" t="n">
         <v>4</v>
@@ -24044,12 +24041,12 @@
     </row>
     <row r="208" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B208" s="85"/>
       <c r="C208" s="85"/>
       <c r="D208" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E208" s="12" t="n">
         <v>5</v>
@@ -24063,12 +24060,12 @@
     </row>
     <row r="209" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B209" s="85"/>
       <c r="C209" s="85"/>
       <c r="D209" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E209" s="12" t="n">
         <v>6</v>
@@ -24082,12 +24079,12 @@
     </row>
     <row r="210" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B210" s="85"/>
       <c r="C210" s="85"/>
       <c r="D210" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E210" s="12" t="n">
         <v>7</v>
@@ -24101,12 +24098,12 @@
     </row>
     <row r="211" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B211" s="85"/>
       <c r="C211" s="85"/>
       <c r="D211" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E211" s="12" t="n">
         <v>8</v>
@@ -24120,12 +24117,12 @@
     </row>
     <row r="212" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B212" s="85"/>
       <c r="C212" s="85"/>
       <c r="D212" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E212" s="12" t="n">
         <v>9</v>
@@ -24139,12 +24136,12 @@
     </row>
     <row r="213" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B213" s="85"/>
       <c r="C213" s="85"/>
       <c r="D213" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E213" s="12" t="n">
         <v>10</v>
@@ -24158,12 +24155,12 @@
     </row>
     <row r="214" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B214" s="85"/>
       <c r="C214" s="85"/>
       <c r="D214" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E214" s="12" t="n">
         <v>11</v>
@@ -24177,12 +24174,12 @@
     </row>
     <row r="215" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B215" s="85"/>
       <c r="C215" s="85"/>
       <c r="D215" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E215" s="12" t="n">
         <v>12</v>
@@ -24196,12 +24193,12 @@
     </row>
     <row r="216" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B216" s="85"/>
       <c r="C216" s="85"/>
       <c r="D216" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E216" s="12" t="n">
         <v>13</v>
@@ -24215,12 +24212,12 @@
     </row>
     <row r="217" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B217" s="85"/>
       <c r="C217" s="85"/>
       <c r="D217" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E217" s="12" t="n">
         <v>14</v>
@@ -24234,12 +24231,12 @@
     </row>
     <row r="218" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B218" s="85"/>
       <c r="C218" s="85"/>
       <c r="D218" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E218" s="12" t="n">
         <v>15</v>
@@ -24253,7 +24250,7 @@
     </row>
     <row r="219" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B219" s="85"/>
       <c r="C219" s="85"/>
@@ -24272,12 +24269,12 @@
     </row>
     <row r="220" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B220" s="85"/>
       <c r="C220" s="85"/>
       <c r="D220" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E220" s="12" t="n">
         <v>17</v>
@@ -24291,12 +24288,12 @@
     </row>
     <row r="221" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B221" s="85"/>
       <c r="C221" s="85"/>
       <c r="D221" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E221" s="12" t="n">
         <v>18</v>
@@ -24310,12 +24307,12 @@
     </row>
     <row r="222" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B222" s="85"/>
       <c r="C222" s="85"/>
       <c r="D222" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E222" s="12" t="n">
         <v>19</v>
@@ -24329,7 +24326,7 @@
     </row>
     <row r="223" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B223" s="85" t="s">
         <v>313</v>
@@ -24350,7 +24347,7 @@
     </row>
     <row r="224" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B224" s="85" t="s">
         <v>313</v>
@@ -24371,14 +24368,14 @@
     </row>
     <row r="225" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B225" s="85" t="s">
         <v>313</v>
       </c>
       <c r="C225" s="85"/>
       <c r="D225" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E225" s="12" t="n">
         <v>12</v>
@@ -24392,14 +24389,14 @@
     </row>
     <row r="226" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B226" s="85" t="s">
         <v>313</v>
       </c>
       <c r="C226" s="85"/>
       <c r="D226" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E226" s="12" t="n">
         <v>13</v>
@@ -24413,14 +24410,14 @@
     </row>
     <row r="227" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B227" s="85" t="s">
         <v>313</v>
       </c>
       <c r="C227" s="85"/>
       <c r="D227" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E227" s="12" t="n">
         <v>14</v>
@@ -24434,14 +24431,14 @@
     </row>
     <row r="228" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B228" s="85" t="s">
         <v>313</v>
       </c>
       <c r="C228" s="85"/>
       <c r="D228" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E228" s="12" t="n">
         <v>15</v>
@@ -24455,14 +24452,14 @@
     </row>
     <row r="229" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B229" s="85" t="s">
         <v>313</v>
       </c>
       <c r="C229" s="85"/>
       <c r="D229" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E229" s="12" t="n">
         <v>16</v>
@@ -24476,14 +24473,14 @@
     </row>
     <row r="230" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B230" s="85" t="s">
         <v>313</v>
       </c>
       <c r="C230" s="85"/>
       <c r="D230" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E230" s="12" t="n">
         <v>17</v>
@@ -24497,14 +24494,14 @@
     </row>
     <row r="231" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B231" s="85" t="s">
         <v>313</v>
       </c>
       <c r="C231" s="85"/>
       <c r="D231" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E231" s="12" t="n">
         <v>18</v>
@@ -24518,14 +24515,14 @@
     </row>
     <row r="232" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B232" s="85" t="s">
         <v>313</v>
       </c>
       <c r="C232" s="85"/>
       <c r="D232" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E232" s="12" t="n">
         <v>19</v>
@@ -24539,14 +24536,14 @@
     </row>
     <row r="233" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B233" s="85" t="s">
         <v>313</v>
       </c>
       <c r="C233" s="85"/>
       <c r="D233" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E233" s="12" t="n">
         <v>20</v>
@@ -24560,14 +24557,14 @@
     </row>
     <row r="234" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B234" s="85" t="s">
         <v>313</v>
       </c>
       <c r="C234" s="85"/>
       <c r="D234" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E234" s="12" t="n">
         <v>21</v>
@@ -24581,14 +24578,14 @@
     </row>
     <row r="235" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B235" s="85" t="s">
         <v>313</v>
       </c>
       <c r="C235" s="85"/>
       <c r="D235" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E235" s="12" t="n">
         <v>22</v>
@@ -24602,14 +24599,14 @@
     </row>
     <row r="236" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B236" s="85" t="s">
         <v>313</v>
       </c>
       <c r="C236" s="85"/>
       <c r="D236" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E236" s="12" t="n">
         <v>23</v>
@@ -24623,14 +24620,14 @@
     </row>
     <row r="237" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B237" s="85" t="s">
         <v>313</v>
       </c>
       <c r="C237" s="85"/>
       <c r="D237" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E237" s="12" t="n">
         <v>24</v>
@@ -24644,7 +24641,7 @@
     </row>
     <row r="238" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B238" s="85" t="s">
         <v>313</v>
@@ -24665,14 +24662,14 @@
     </row>
     <row r="239" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B239" s="85" t="s">
         <v>313</v>
       </c>
       <c r="C239" s="85"/>
       <c r="D239" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E239" s="12" t="n">
         <v>26</v>
@@ -24686,14 +24683,14 @@
     </row>
     <row r="240" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B240" s="85" t="s">
         <v>313</v>
       </c>
       <c r="C240" s="85"/>
       <c r="D240" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E240" s="12" t="n">
         <v>27</v>
@@ -24707,14 +24704,14 @@
     </row>
     <row r="241" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B241" s="85" t="s">
         <v>313</v>
       </c>
       <c r="C241" s="85"/>
       <c r="D241" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E241" s="12" t="n">
         <v>28</v>
@@ -24749,7 +24746,7 @@
         <v>10</v>
       </c>
       <c r="I242" s="12" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24775,7 +24772,7 @@
         <v>9</v>
       </c>
       <c r="H243" s="12" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24789,7 +24786,7 @@
         <v>538</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E244" s="12" t="n">
         <v>12</v>
@@ -24812,7 +24809,7 @@
         <v>538</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E245" s="12" t="n">
         <v>13</v>
@@ -24835,7 +24832,7 @@
         <v>538</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E246" s="12" t="n">
         <v>14</v>
@@ -24858,7 +24855,7 @@
         <v>538</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E247" s="12" t="n">
         <v>15</v>
@@ -24881,7 +24878,7 @@
         <v>538</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E248" s="12" t="n">
         <v>17</v>
@@ -24904,7 +24901,7 @@
         <v>538</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E249" s="12" t="n">
         <v>18</v>
@@ -24927,7 +24924,7 @@
         <v>538</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E250" s="12" t="n">
         <v>19</v>
@@ -24950,7 +24947,7 @@
         <v>538</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E251" s="12" t="n">
         <v>20</v>
@@ -24973,7 +24970,7 @@
         <v>538</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E252" s="12" t="n">
         <v>21</v>
@@ -24996,7 +24993,7 @@
         <v>538</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E253" s="12" t="n">
         <v>22</v>
@@ -25019,7 +25016,7 @@
         <v>538</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E254" s="12" t="n">
         <v>23</v>
@@ -25042,7 +25039,7 @@
         <v>538</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E255" s="12" t="n">
         <v>24</v>
@@ -25088,7 +25085,7 @@
         <v>538</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E257" s="12" t="n">
         <v>26</v>
@@ -25111,7 +25108,7 @@
         <v>538</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E258" s="12" t="n">
         <v>27</v>
@@ -25134,7 +25131,7 @@
         <v>538</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E259" s="12" t="n">
         <v>28</v>
@@ -25191,12 +25188,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
@@ -25218,7 +25215,7 @@
         <v>601</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>877</v>
@@ -25231,7 +25228,7 @@
     </row>
     <row r="2" s="46" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C2" s="25"/>
       <c r="AMI2" s="58"/>
@@ -25239,7 +25236,7 @@
     </row>
     <row r="3" s="18" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>350</v>
@@ -25254,20 +25251,20 @@
         <v>603</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>877</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="AMI3" s="14"/>
       <c r="AMJ3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B4" s="85"/>
       <c r="D4" s="85" t="s">
@@ -25285,7 +25282,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B5" s="85"/>
       <c r="D5" s="85" t="s">
@@ -25295,7 +25292,7 @@
         <v>592</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H5" s="84" t="n">
         <v>0</v>
@@ -25362,129 +25359,129 @@
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1192</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>1193</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="2" s="46" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C2" s="25"/>
     </row>
     <row r="3" s="18" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>1196</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="18" t="s">
         <v>1197</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="85" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B4" s="85" t="s">
         <v>1061</v>
       </c>
       <c r="C4" s="85" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="85" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C5" s="85" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="85" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B6" s="160" t="s">
         <v>1061</v>
       </c>
       <c r="C6" s="85" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="85" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B7" s="160" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C7" s="85" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="85" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B8" s="160" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C8" s="85" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="85" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B9" s="160" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C9" s="85" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="85" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B10" s="160" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C10" s="85" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="85" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B11" s="160" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C11" s="85" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="85" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B12" s="160" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C12" s="85" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
   </sheetData>
@@ -25532,45 +25529,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>1200</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>1201</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="2" s="46" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C2" s="25"/>
     </row>
     <row r="3" s="18" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>1204</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>1205</v>
       </c>
     </row>
   </sheetData>
@@ -25603,16 +25600,16 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -26674,8 +26671,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -26692,47 +26689,47 @@
         <v>530</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>1206</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>1207</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="2" s="46" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C2" s="25"/>
     </row>
     <row r="3" s="18" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>1211</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>1212</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>1213</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>1215</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>1216</v>
       </c>
       <c r="C4" s="84" t="n">
         <v>0</v>
@@ -26749,10 +26746,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>1217</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>1218</v>
       </c>
       <c r="C5" s="84" t="n">
         <v>0</v>
@@ -26769,10 +26766,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>1219</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>1220</v>
       </c>
       <c r="C6" s="84" t="n">
         <v>0</v>
@@ -26840,56 +26837,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.0647773279352"/>
     <col collapsed="false" hidden="false" max="6" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>1221</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>1170</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>1171</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="2" s="46" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C2" s="25"/>
     </row>
     <row r="3" s="18" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>1175</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>1176</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="85" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B4" s="160" t="s">
         <v>1061</v>
@@ -26907,10 +26904,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="85" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B5" s="160" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C5" s="12" t="n">
         <v>0</v>
@@ -26925,10 +26922,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="85" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B6" s="160" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C6" s="12" t="n">
         <v>0</v>
@@ -26943,10 +26940,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="85" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B7" s="160" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C7" s="12" t="n">
         <v>0</v>
@@ -26961,10 +26958,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="85" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B8" s="160" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C8" s="12" t="n">
         <v>0</v>
@@ -26979,10 +26976,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="85" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B9" s="160" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C9" s="12" t="n">
         <v>0</v>
@@ -26997,10 +26994,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="85" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B10" s="160" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C10" s="12" t="n">
         <v>0</v>
@@ -27015,10 +27012,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="85" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B11" s="160" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C11" s="12" t="n">
         <v>10</v>
@@ -27032,10 +27029,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="85" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B12" s="160" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C12" s="12" t="n">
         <v>10</v>
@@ -27049,10 +27046,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="85" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B13" s="160" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C13" s="12" t="n">
         <v>10</v>
@@ -27066,10 +27063,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="85" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B14" s="160" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C14" s="12" t="n">
         <v>10</v>
@@ -27083,10 +27080,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="85" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B15" s="160" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C15" s="12" t="n">
         <v>10</v>
@@ -27100,10 +27097,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="85" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B16" s="160" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C16" s="12" t="n">
         <v>10</v>
@@ -27117,7 +27114,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="85" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B17" s="160" t="s">
         <v>1061</v>
@@ -27134,10 +27131,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="85" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B18" s="160" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C18" s="12" t="n">
         <v>10</v>
@@ -27151,10 +27148,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="85" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B19" s="160" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C19" s="12" t="n">
         <v>10</v>
@@ -27168,10 +27165,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="85" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B20" s="160" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C20" s="12" t="n">
         <v>10</v>
@@ -27185,10 +27182,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="85" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B21" s="160" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C21" s="12" t="n">
         <v>10</v>
@@ -27202,10 +27199,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="85" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B22" s="160" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C22" s="12" t="n">
         <v>10</v>
@@ -27219,10 +27216,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="85" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B23" s="160" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C23" s="12" t="n">
         <v>10</v>
@@ -27279,14 +27276,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.46153846153846"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.4615384615385"/>
@@ -27298,49 +27295,49 @@
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>1226</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>1227</v>
-      </c>
       <c r="F1" s="17" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>530</v>
       </c>
       <c r="H1" s="17" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>1228</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
+        <v>1207</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>1229</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>1208</v>
-      </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>1230</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>1231</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>1232</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>1233</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>1234</v>
       </c>
       <c r="P1" s="17" t="s">
         <v>877</v>
@@ -27348,13 +27345,13 @@
     </row>
     <row r="2" s="46" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C2" s="25"/>
     </row>
     <row r="3" s="18" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>8</v>
@@ -27363,40 +27360,40 @@
         <v>707</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>1237</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>1238</v>
-      </c>
       <c r="F3" s="18" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>530</v>
       </c>
       <c r="H3" s="18" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>1239</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="18" t="s">
         <v>1240</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="K3" s="18" t="s">
         <v>1241</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="L3" s="18" t="s">
         <v>1242</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="M3" s="18" t="s">
         <v>1243</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="N3" s="18" t="s">
         <v>1244</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="O3" s="18" t="s">
         <v>1245</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>1246</v>
       </c>
       <c r="P3" s="18" t="s">
         <v>877</v>
@@ -27426,7 +27423,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.21457489878543"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
@@ -27436,42 +27433,42 @@
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="22.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1247</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>1248</v>
-      </c>
       <c r="C1" s="17" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>1171</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="2" s="46" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C2" s="25"/>
     </row>
     <row r="3" s="18" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>1175</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>1176</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27536,10 +27533,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.49797570850202"/>
@@ -27547,55 +27544,55 @@
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="105.51012145749"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="106.477732793522"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>1247</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>1250</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>1248</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>1251</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>1252</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>869</v>
       </c>
       <c r="I1" s="0" t="s">
+        <v>1252</v>
+      </c>
+      <c r="J1" s="0" t="s">
         <v>1253</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>1254</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>1255</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>1256</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="3" s="18" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27603,31 +27600,31 @@
         <v>69</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>1259</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>1260</v>
-      </c>
       <c r="G3" s="18" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>869</v>
       </c>
       <c r="I3" s="18" t="s">
+        <v>1252</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>1253</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27688,17 +27685,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>987</v>
@@ -27718,7 +27715,7 @@
     </row>
     <row r="2" s="46" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C2" s="25"/>
     </row>
@@ -27766,8 +27763,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.4898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -27781,7 +27778,7 @@
     </row>
     <row r="2" s="46" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C2" s="25"/>
     </row>
@@ -27795,34 +27792,34 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>1264</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>1266</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>1268</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>1270</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>1271</v>
       </c>
     </row>
   </sheetData>
@@ -27852,11 +27849,11 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.0323886639676"/>
@@ -27867,43 +27864,43 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>345</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>1272</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>1273</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>1231</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>1233</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>1234</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>1274</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>575</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>1274</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>1275</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>1276</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>1277</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>877</v>
@@ -27911,49 +27908,49 @@
     </row>
     <row r="2" s="46" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C2" s="25"/>
     </row>
     <row r="3" s="18" customFormat="true" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="161" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>486</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>1280</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>1245</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>1281</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>1242</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>1243</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>1245</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>1246</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>1282</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>575</v>
       </c>
       <c r="K3" s="18" t="s">
+        <v>1282</v>
+      </c>
+      <c r="L3" s="18" t="s">
         <v>1283</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="M3" s="18" t="s">
         <v>1284</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>1285</v>
       </c>
       <c r="N3" s="18" t="s">
         <v>877</v>
@@ -27985,10 +27982,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
@@ -27999,43 +27996,43 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.9" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>345</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>1287</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>1288</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>1289</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>1185</v>
-      </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>1290</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>1291</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>1292</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>1013</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>877</v>
@@ -28043,49 +28040,49 @@
     </row>
     <row r="2" s="46" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B2" s="25"/>
     </row>
     <row r="3" s="18" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>486</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>1296</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>1297</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="18" t="s">
         <v>1298</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="H3" s="18" t="s">
         <v>1299</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="I3" s="18" t="s">
         <v>1300</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="18" t="s">
         <v>1301</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="K3" s="18" t="s">
         <v>1302</v>
       </c>
-      <c r="K3" s="18" t="s">
-        <v>1303</v>
-      </c>
       <c r="L3" s="18" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="N3" s="18" t="s">
         <v>877</v>
@@ -28115,9 +28112,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.49797570850202"/>
@@ -28125,40 +28122,40 @@
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="32.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>607</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>1251</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>1252</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>869</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>1020</v>
@@ -28175,7 +28172,7 @@
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>0</v>
@@ -28186,40 +28183,40 @@
         <v>46</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>607</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>869</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="K3" s="18" t="s">
+        <v>1306</v>
+      </c>
+      <c r="L3" s="18" t="s">
         <v>1307</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="M3" s="18" t="s">
         <v>1308</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28336,9 +28333,9 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -28528,17 +28525,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="26.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>987</v>
@@ -28558,13 +28555,13 @@
     </row>
     <row r="2" s="46" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C2" s="25"/>
     </row>
     <row r="3" s="18" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>992</v>
@@ -28606,9 +28603,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -28620,12 +28617,12 @@
         <v>3</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="2" s="46" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C2" s="25"/>
     </row>
@@ -28642,10 +28639,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>1314</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>1315</v>
       </c>
       <c r="C4" s="162" t="s">
         <v>703</v>
@@ -28684,36 +28681,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="2" s="46" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C2" s="25"/>
     </row>
     <row r="3" s="18" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="162" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B4" s="85" t="s">
         <v>1061</v>
@@ -28721,10 +28718,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="162" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
   </sheetData>
@@ -28734,7 +28731,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="Select a valid instrument from the selection list" errorTitle="Invalid Instrument" operator="equal" prompt="Select an Worksheet Template from the selection list. Maintain the list of valid options on the 'Worksheet Template' sheet" promptTitle="Select a valid Worksheet Template" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A4:A5" type="list">
-      <formula1>'worksheet templates'!$a$4:$a$100</formula1>
+      <formula1>'Worksheet Templates'!$A$4:$A$100</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -28764,7 +28761,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.8178137651822"/>
@@ -28774,91 +28771,91 @@
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>933</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>1320</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>1321</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="2" s="46" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C2" s="25"/>
     </row>
     <row r="3" s="18" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>1324</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>1325</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>705</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>1326</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>1327</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="162" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B4" s="67" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="85" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D4" s="85" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E4" s="85"/>
       <c r="F4" s="85"/>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="162" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B5" s="67" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="85" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D5" s="85"/>
       <c r="E5" s="85" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F5" s="85"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="162" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B6" s="67" t="n">
         <v>3</v>
       </c>
       <c r="C6" s="85" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D6" s="85"/>
       <c r="E6" s="85"/>
@@ -28866,13 +28863,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="162" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B7" s="67" t="n">
         <v>4</v>
       </c>
       <c r="C7" s="85" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D7" s="85"/>
       <c r="E7" s="85"/>
@@ -28880,13 +28877,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="162" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B8" s="67" t="n">
         <v>5</v>
       </c>
       <c r="C8" s="85" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D8" s="85"/>
       <c r="E8" s="85"/>
@@ -28894,13 +28891,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="162" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B9" s="67" t="n">
         <v>6</v>
       </c>
       <c r="C9" s="85" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D9" s="85"/>
       <c r="E9" s="85"/>
@@ -28908,13 +28905,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="162" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B10" s="67" t="n">
         <v>7</v>
       </c>
       <c r="C10" s="85" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D10" s="85"/>
       <c r="E10" s="85"/>
@@ -28922,13 +28919,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="162" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B11" s="67" t="n">
         <v>8</v>
       </c>
       <c r="C11" s="85" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D11" s="85"/>
       <c r="E11" s="85"/>
@@ -28936,13 +28933,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="162" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B12" s="67" t="n">
         <v>9</v>
       </c>
       <c r="C12" s="85" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D12" s="85"/>
       <c r="E12" s="85"/>
@@ -28950,13 +28947,13 @@
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="162" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B13" s="67" t="n">
         <v>10</v>
       </c>
       <c r="C13" s="85" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D13" s="85"/>
       <c r="E13" s="85"/>
@@ -28964,13 +28961,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="162" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B14" s="67" t="n">
         <v>11</v>
       </c>
       <c r="C14" s="85" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D14" s="85"/>
       <c r="E14" s="85"/>
@@ -28978,13 +28975,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="162" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B15" s="67" t="n">
         <v>12</v>
       </c>
       <c r="C15" s="85" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D15" s="85"/>
       <c r="E15" s="85"/>
@@ -28992,13 +28989,13 @@
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="162" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B16" s="67" t="n">
         <v>13</v>
       </c>
       <c r="C16" s="85" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D16" s="85"/>
       <c r="E16" s="85"/>
@@ -29006,13 +29003,13 @@
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="162" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B17" s="67" t="n">
         <v>14</v>
       </c>
       <c r="C17" s="85" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D17" s="85"/>
       <c r="E17" s="85"/>
@@ -29020,13 +29017,13 @@
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="162" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B18" s="67" t="n">
         <v>15</v>
       </c>
       <c r="C18" s="85" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D18" s="85"/>
       <c r="E18" s="85"/>
@@ -29034,13 +29031,13 @@
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="162" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B19" s="67" t="n">
         <v>16</v>
       </c>
       <c r="C19" s="85" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D19" s="85"/>
       <c r="E19" s="85"/>
@@ -29048,13 +29045,13 @@
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="162" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B20" s="67" t="n">
         <v>17</v>
       </c>
       <c r="C20" s="85" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D20" s="85"/>
       <c r="E20" s="85"/>
@@ -29062,13 +29059,13 @@
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="162" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B21" s="67" t="n">
         <v>18</v>
       </c>
       <c r="C21" s="85" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D21" s="85"/>
       <c r="E21" s="85"/>
@@ -29078,32 +29075,32 @@
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="162" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B22" s="67" t="n">
         <v>19</v>
       </c>
       <c r="C22" s="85" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D22" s="85"/>
       <c r="E22" s="85" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F22" s="85"/>
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="162" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B23" s="67" t="n">
         <v>20</v>
       </c>
       <c r="C23" s="85" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D23" s="85" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E23" s="85"/>
       <c r="F23" s="85"/>
@@ -29162,10 +29159,10 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="1023" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.1417004048583"/>
   </cols>
@@ -29183,7 +29180,7 @@
     </row>
     <row r="2" s="18" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="25" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C2" s="164"/>
     </row>
@@ -29200,10 +29197,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B4" s="143" t="s">
         <v>1332</v>
-      </c>
-      <c r="B4" s="143" t="s">
-        <v>1333</v>
       </c>
       <c r="C4" s="165" t="n">
         <v>0</v>
@@ -29211,10 +29208,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B5" s="143" t="s">
         <v>1334</v>
-      </c>
-      <c r="B5" s="143" t="s">
-        <v>1335</v>
       </c>
       <c r="C5" s="165" t="n">
         <v>0</v>
@@ -29222,21 +29219,21 @@
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B6" s="143" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C6" s="165" t="s">
         <v>1336</v>
-      </c>
-      <c r="B6" s="143" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C6" s="165" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B7" s="143" t="s">
         <v>1338</v>
-      </c>
-      <c r="B7" s="143" t="s">
-        <v>1339</v>
       </c>
       <c r="C7" s="166" t="n">
         <v>1</v>
@@ -29244,10 +29241,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B8" s="143" t="s">
         <v>1340</v>
-      </c>
-      <c r="B8" s="143" t="s">
-        <v>1341</v>
       </c>
       <c r="C8" s="166" t="n">
         <v>1</v>
@@ -29255,10 +29252,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B9" s="143" t="s">
         <v>1342</v>
-      </c>
-      <c r="B9" s="143" t="s">
-        <v>1343</v>
       </c>
       <c r="C9" s="165" t="n">
         <v>15</v>
@@ -29269,7 +29266,7 @@
         <v>265</v>
       </c>
       <c r="B10" s="143" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C10" s="165" t="n">
         <v>14</v>
@@ -29277,10 +29274,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B11" s="143" t="s">
         <v>1345</v>
-      </c>
-      <c r="B11" s="143" t="s">
-        <v>1346</v>
       </c>
       <c r="C11" s="165" t="n">
         <v>5</v>
@@ -29288,10 +29285,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B12" s="143" t="s">
         <v>1347</v>
-      </c>
-      <c r="B12" s="143" t="s">
-        <v>1348</v>
       </c>
       <c r="C12" s="165" t="n">
         <v>5</v>
@@ -29299,10 +29296,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B13" s="143" t="s">
         <v>1349</v>
-      </c>
-      <c r="B13" s="143" t="s">
-        <v>1350</v>
       </c>
       <c r="C13" s="165" t="n">
         <v>4</v>
@@ -29310,19 +29307,19 @@
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B14" s="143" t="s">
         <v>1351</v>
-      </c>
-      <c r="B14" s="143" t="s">
-        <v>1352</v>
       </c>
       <c r="C14" s="165"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B15" s="143" t="s">
         <v>1353</v>
-      </c>
-      <c r="B15" s="143" t="s">
-        <v>1354</v>
       </c>
       <c r="C15" s="166" t="n">
         <v>0</v>
@@ -29330,10 +29327,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B16" s="143" t="s">
         <v>1355</v>
-      </c>
-      <c r="B16" s="143" t="s">
-        <v>1356</v>
       </c>
       <c r="C16" s="166" t="n">
         <v>0</v>
@@ -29341,10 +29338,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B17" s="143" t="s">
         <v>1357</v>
-      </c>
-      <c r="B17" s="143" t="s">
-        <v>1358</v>
       </c>
       <c r="C17" s="166" t="n">
         <v>1</v>
@@ -29352,10 +29349,10 @@
     </row>
     <row r="18" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B18" s="143" t="s">
         <v>1359</v>
-      </c>
-      <c r="B18" s="143" t="s">
-        <v>1360</v>
       </c>
       <c r="C18" s="167" t="s">
         <v>981</v>
@@ -29363,22 +29360,22 @@
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B19" s="143" t="s">
         <v>1361</v>
       </c>
-      <c r="B19" s="143" t="s">
+      <c r="C19" s="168" t="s">
         <v>1362</v>
-      </c>
-      <c r="C19" s="168" t="s">
-        <v>1363</v>
       </c>
       <c r="D19" s="169"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B20" s="143" t="s">
         <v>1364</v>
-      </c>
-      <c r="B20" s="143" t="s">
-        <v>1365</v>
       </c>
       <c r="C20" s="167" t="s">
         <v>365</v>
@@ -29387,10 +29384,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B21" s="143" t="s">
         <v>1366</v>
-      </c>
-      <c r="B21" s="143" t="s">
-        <v>1367</v>
       </c>
       <c r="C21" s="167" t="s">
         <v>365</v>
@@ -29398,10 +29395,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B22" s="143" t="s">
         <v>1368</v>
-      </c>
-      <c r="B22" s="143" t="s">
-        <v>1369</v>
       </c>
       <c r="C22" s="168" t="n">
         <v>30</v>
@@ -29409,10 +29406,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="17" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B23" s="143" t="s">
         <v>1370</v>
-      </c>
-      <c r="B23" s="143" t="s">
-        <v>1371</v>
       </c>
       <c r="C23" s="168" t="n">
         <v>0</v>
@@ -29420,10 +29417,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="17" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B24" s="143" t="s">
         <v>1372</v>
-      </c>
-      <c r="B24" s="143" t="s">
-        <v>1373</v>
       </c>
       <c r="C24" s="168" t="n">
         <v>0</v>
@@ -29431,33 +29428,33 @@
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="17" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B25" s="143" t="s">
         <v>1374</v>
       </c>
-      <c r="B25" s="143" t="s">
+      <c r="C25" s="167" t="s">
         <v>1375</v>
-      </c>
-      <c r="C25" s="167" t="s">
-        <v>1376</v>
       </c>
       <c r="D25" s="170"/>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="17" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B26" s="143" t="s">
         <v>1377</v>
       </c>
-      <c r="B26" s="143" t="s">
+      <c r="C26" s="167" t="s">
         <v>1378</v>
-      </c>
-      <c r="C26" s="167" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="17" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B27" s="143" t="s">
         <v>1380</v>
-      </c>
-      <c r="B27" s="143" t="s">
-        <v>1381</v>
       </c>
       <c r="C27" s="166" t="n">
         <v>0</v>
@@ -29465,21 +29462,21 @@
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="17" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B28" s="143" t="s">
         <v>1382</v>
       </c>
-      <c r="B28" s="143" t="s">
+      <c r="C28" s="165" t="s">
         <v>1383</v>
-      </c>
-      <c r="C28" s="165" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="17" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B29" s="143" t="s">
         <v>1385</v>
-      </c>
-      <c r="B29" s="143" t="s">
-        <v>1386</v>
       </c>
       <c r="C29" s="165" t="n">
         <v>2</v>
@@ -29487,10 +29484,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B30" s="143" t="s">
         <v>1387</v>
-      </c>
-      <c r="B30" s="143" t="s">
-        <v>1388</v>
       </c>
       <c r="C30" s="166" t="n">
         <v>0</v>
@@ -29498,22 +29495,22 @@
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="17" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B31" s="143" t="s">
         <v>1389</v>
-      </c>
-      <c r="B31" s="143" t="s">
-        <v>1390</v>
       </c>
       <c r="C31" s="165"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="17" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B32" s="143" t="s">
         <v>1391</v>
       </c>
-      <c r="B32" s="143" t="s">
+      <c r="C32" s="171" t="s">
         <v>1392</v>
-      </c>
-      <c r="C32" s="171" t="s">
-        <v>1393</v>
       </c>
     </row>
   </sheetData>
@@ -29659,28 +29656,28 @@
         <v>167</v>
       </c>
       <c r="C1" s="79" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D1" s="79" t="s">
         <v>1394</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="E1" s="79" t="s">
         <v>1395</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="F1" s="78" t="s">
         <v>1396</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="G1" s="173" t="s">
         <v>1397</v>
       </c>
-      <c r="G1" s="173" t="s">
+      <c r="H1" s="79" t="s">
         <v>1398</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="I1" s="79" t="s">
         <v>1399</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="J1" s="79" t="s">
         <v>1400</v>
-      </c>
-      <c r="J1" s="79" t="s">
-        <v>1401</v>
       </c>
       <c r="K1" s="79" t="s">
         <v>1033</v>
@@ -29689,34 +29686,34 @@
     </row>
     <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>226</v>
       </c>
       <c r="C2" s="143" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D2" s="143" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E2" s="174" t="s">
         <v>1402</v>
       </c>
-      <c r="E2" s="174" t="s">
+      <c r="F2" s="143" t="s">
         <v>1403</v>
-      </c>
-      <c r="F2" s="143" t="s">
-        <v>1404</v>
       </c>
       <c r="G2" s="143" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="143" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I2" s="143" t="s">
         <v>1405</v>
       </c>
-      <c r="I2" s="143" t="s">
+      <c r="J2" s="143" t="s">
         <v>1406</v>
-      </c>
-      <c r="J2" s="143" t="s">
-        <v>1407</v>
       </c>
       <c r="K2" s="143" t="s">
         <v>1055</v>
@@ -29724,34 +29721,34 @@
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>215</v>
       </c>
       <c r="C3" s="143" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D3" s="143" t="s">
         <v>365</v>
       </c>
       <c r="E3" s="174" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="F3" s="143" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="G3" s="143" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="143" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I3" s="143" t="s">
         <v>1411</v>
       </c>
-      <c r="I3" s="143" t="s">
+      <c r="J3" s="143" t="s">
         <v>1412</v>
-      </c>
-      <c r="J3" s="143" t="s">
-        <v>1413</v>
       </c>
       <c r="K3" s="143" t="s">
         <v>1063</v>
@@ -29759,19 +29756,19 @@
     </row>
     <row r="4" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="143" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D4" s="143" t="s">
         <v>1415</v>
       </c>
-      <c r="D4" s="143" t="s">
-        <v>1416</v>
-      </c>
       <c r="F4" s="143" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="G4" s="174"/>
       <c r="H4" s="143" t="s">
@@ -29789,10 +29786,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="21" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>1417</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>1418</v>
       </c>
       <c r="G6" s="174"/>
     </row>
@@ -29807,10 +29804,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>1419</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>1420</v>
       </c>
       <c r="G8" s="174"/>
     </row>
@@ -29863,51 +29860,51 @@
     </row>
     <row r="21" s="178" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="78" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B21" s="79" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C21" s="78" t="s">
         <v>1421</v>
       </c>
-      <c r="B21" s="79" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C21" s="78" t="s">
+      <c r="D21" s="78" t="s">
         <v>1422</v>
       </c>
-      <c r="D21" s="78" t="s">
+      <c r="E21" s="177" t="s">
         <v>1423</v>
       </c>
-      <c r="E21" s="177" t="s">
+      <c r="F21" s="78" t="s">
         <v>1424</v>
       </c>
-      <c r="F21" s="78" t="s">
+      <c r="G21" s="78" t="s">
         <v>1425</v>
       </c>
-      <c r="G21" s="78" t="s">
+      <c r="H21" s="78" t="s">
         <v>1426</v>
       </c>
-      <c r="H21" s="78" t="s">
+      <c r="I21" s="78" t="s">
         <v>1427</v>
-      </c>
-      <c r="I21" s="78" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="179" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B22" s="143" t="s">
         <v>1429</v>
       </c>
-      <c r="B22" s="143" t="s">
+      <c r="C22" s="143" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D22" s="143" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E22" s="174" t="s">
         <v>1430</v>
       </c>
-      <c r="C22" s="143" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D22" s="143" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E22" s="174" t="s">
+      <c r="F22" s="143" t="s">
         <v>1431</v>
-      </c>
-      <c r="F22" s="143" t="s">
-        <v>1432</v>
       </c>
       <c r="G22" s="143" t="s">
         <v>943</v>
@@ -29921,19 +29918,19 @@
     </row>
     <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="143" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C23" s="143" t="s">
         <v>1433</v>
       </c>
-      <c r="C23" s="143" t="s">
+      <c r="D23" s="143" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E23" s="174" t="s">
         <v>1434</v>
       </c>
-      <c r="D23" s="143" t="s">
-        <v>1329</v>
-      </c>
-      <c r="E23" s="174" t="s">
+      <c r="F23" s="143" t="s">
         <v>1435</v>
-      </c>
-      <c r="F23" s="143" t="s">
-        <v>1436</v>
       </c>
       <c r="G23" s="143" t="s">
         <v>950</v>
@@ -29942,21 +29939,21 @@
         <v>950</v>
       </c>
       <c r="I23" s="143" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="143" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C24" s="143" t="s">
         <v>1438</v>
       </c>
-      <c r="C24" s="143" t="s">
+      <c r="D24" s="143" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F24" s="143" t="s">
         <v>1439</v>
-      </c>
-      <c r="D24" s="143" t="s">
-        <v>1312</v>
-      </c>
-      <c r="F24" s="143" t="s">
-        <v>1440</v>
       </c>
       <c r="G24" s="143" t="s">
         <v>947</v>
@@ -29965,926 +29962,926 @@
         <v>947</v>
       </c>
       <c r="I24" s="143" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="143" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C25" s="143" t="s">
         <v>1442</v>
       </c>
-      <c r="C25" s="143" t="s">
+      <c r="D25" s="143" t="s">
+        <v>1329</v>
+      </c>
+      <c r="H25" s="143" t="s">
         <v>1443</v>
       </c>
-      <c r="D25" s="143" t="s">
-        <v>1330</v>
-      </c>
-      <c r="H25" s="143" t="s">
+      <c r="I25" s="143" t="s">
         <v>1444</v>
-      </c>
-      <c r="I25" s="143" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="143" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C26" s="143" t="s">
         <v>1446</v>
       </c>
-      <c r="C26" s="143" t="s">
+      <c r="H26" s="143" t="s">
         <v>1447</v>
-      </c>
-      <c r="H26" s="143" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="143" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C27" s="143" t="s">
         <v>1449</v>
-      </c>
-      <c r="C27" s="143" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="143" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C28" s="143" t="s">
         <v>1451</v>
-      </c>
-      <c r="C28" s="143" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="143" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C29" s="143" t="s">
         <v>1453</v>
-      </c>
-      <c r="C29" s="143" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="143" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C30" s="143" t="s">
         <v>1455</v>
-      </c>
-      <c r="C30" s="143" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="143" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C31" s="143" t="s">
         <v>1457</v>
-      </c>
-      <c r="C31" s="143" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="143" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C32" s="143" t="s">
         <v>1459</v>
-      </c>
-      <c r="C32" s="143" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="143" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C33" s="143" t="s">
         <v>1461</v>
-      </c>
-      <c r="C33" s="143" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="143" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="143" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="143" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="143" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="143" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="143" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="143" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="143" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="143" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="143" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="143" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="143" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="143" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="143" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="143" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="143" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="143" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="143" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="143" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="143" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="143" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="143" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="143" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="143" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="143" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="143" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="143" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="143" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="143" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="143" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="143" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="143" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="143" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="143" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="143" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="143" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="143" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="143" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="143" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="143" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="143" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="143" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="143" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="143" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="143" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="143" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="143" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="143" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="143" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="143" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="143" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="143" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="143" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="143" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="143" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="143" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="143" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="143" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="143" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="143" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="143" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="143" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="143" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="143" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="143" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="143" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="143" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="143" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="143" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="143" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="143" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B105" s="143" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="143" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="143" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="143" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B109" s="143" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="143" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B111" s="143" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="143" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B113" s="143" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B114" s="143" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B115" s="143" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="143" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B117" s="143" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="143" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="143" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="143" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="143" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B122" s="143" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B123" s="143" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="143" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="143" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B126" s="143" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B127" s="143" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B128" s="143" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B129" s="143" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B130" s="143" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B131" s="143" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B132" s="143" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B133" s="143" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="143" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="143" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B136" s="143" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B137" s="143" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B138" s="143" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B139" s="143" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B140" s="143" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B141" s="143" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="143" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="143" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B144" s="143" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="143" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B146" s="143" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B147" s="143" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="143" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B149" s="143" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B150" s="143" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B151" s="143" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="143" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B153" s="143" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B154" s="143" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B155" s="143" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B156" s="143" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B157" s="143" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B158" s="143" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B159" s="143" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B160" s="143" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B161" s="143" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="143" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B163" s="143" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="143" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B165" s="143" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B166" s="143" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B167" s="143" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B168" s="143" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B169" s="143" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B170" s="143" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B171" s="143" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B172" s="143" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="143" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="143" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B175" s="143" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B176" s="143" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B177" s="143" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B178" s="143" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B179" s="143" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B180" s="143" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B181" s="143" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B182" s="143" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B183" s="143" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B184" s="143" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B185" s="143" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B186" s="143" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B187" s="143" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B188" s="143" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B189" s="143" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B190" s="143" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B191" s="143" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B192" s="143" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="143" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="143" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="143" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="143" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="143" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B198" s="143" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B199" s="143" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B200" s="143" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
   </sheetData>
@@ -30912,9 +30909,9 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="48" width="8.24696356275304"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="48" width="6"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="48" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -31078,7 +31075,7 @@
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.85425101214575"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="49" width="9.4251012145749"/>
   </cols>
   <sheetData>
@@ -31252,9 +31249,9 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.24696356275304"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.3886639676113"/>
